--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5152,28 +5152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1264.280006016955</v>
+        <v>1373.955070685487</v>
       </c>
       <c r="AB2" t="n">
-        <v>1729.843680329784</v>
+        <v>1879.905942331636</v>
       </c>
       <c r="AC2" t="n">
-        <v>1564.749827329962</v>
+        <v>1700.490357660065</v>
       </c>
       <c r="AD2" t="n">
-        <v>1264280.006016955</v>
+        <v>1373955.070685487</v>
       </c>
       <c r="AE2" t="n">
-        <v>1729843.680329784</v>
+        <v>1879905.942331636</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.003753450548892e-07</v>
+        <v>1.665930119608658e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.87789351851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>1564749.827329962</v>
+        <v>1700490.357660065</v>
       </c>
     </row>
     <row r="3">
@@ -5258,28 +5258,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>769.5197224847158</v>
+        <v>842.6080748207643</v>
       </c>
       <c r="AB3" t="n">
-        <v>1052.890833117758</v>
+        <v>1152.893541214475</v>
       </c>
       <c r="AC3" t="n">
-        <v>952.4044097465635</v>
+        <v>1042.862999737213</v>
       </c>
       <c r="AD3" t="n">
-        <v>769519.7224847157</v>
+        <v>842608.0748207642</v>
       </c>
       <c r="AE3" t="n">
-        <v>1052890.833117758</v>
+        <v>1152893.541214475</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.262384634220974e-06</v>
+        <v>2.335742083821356e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.03703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>952404.4097465635</v>
+        <v>1042862.999737213</v>
       </c>
     </row>
     <row r="4">
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>650.865557526457</v>
+        <v>723.9538203539545</v>
       </c>
       <c r="AB4" t="n">
-        <v>890.5429699695534</v>
+        <v>990.5455555967228</v>
       </c>
       <c r="AC4" t="n">
-        <v>805.5507988005669</v>
+        <v>896.0092780099895</v>
       </c>
       <c r="AD4" t="n">
-        <v>650865.557526457</v>
+        <v>723953.8203539544</v>
       </c>
       <c r="AE4" t="n">
-        <v>890542.9699695534</v>
+        <v>990545.5555967228</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.401400822879414e-06</v>
+        <v>2.592958429283565e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.84490740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>805550.7988005669</v>
+        <v>896009.2780099895</v>
       </c>
     </row>
     <row r="5">
@@ -5470,28 +5470,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>607.0624386566586</v>
+        <v>667.9551903790289</v>
       </c>
       <c r="AB5" t="n">
-        <v>830.6096102746767</v>
+        <v>913.9257595798332</v>
       </c>
       <c r="AC5" t="n">
-        <v>751.3373948379706</v>
+        <v>826.7019677883929</v>
       </c>
       <c r="AD5" t="n">
-        <v>607062.4386566586</v>
+        <v>667955.1903790289</v>
       </c>
       <c r="AE5" t="n">
-        <v>830609.6102746767</v>
+        <v>913925.7595798332</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.477394938855523e-06</v>
+        <v>2.733567440195472e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.28645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>751337.3948379706</v>
+        <v>826701.9677883929</v>
       </c>
     </row>
     <row r="6">
@@ -5576,28 +5576,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>569.5317572403761</v>
+        <v>642.5346792133018</v>
       </c>
       <c r="AB6" t="n">
-        <v>779.258476224111</v>
+        <v>879.1442947290825</v>
       </c>
       <c r="AC6" t="n">
-        <v>704.8871409494216</v>
+        <v>795.2399971269055</v>
       </c>
       <c r="AD6" t="n">
-        <v>569531.7572403761</v>
+        <v>642534.6792133019</v>
       </c>
       <c r="AE6" t="n">
-        <v>779258.4762241109</v>
+        <v>879144.2947290825</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.524136309428251e-06</v>
+        <v>2.82005121332028e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.971064814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>704887.1409494216</v>
+        <v>795239.9971269055</v>
       </c>
     </row>
     <row r="7">
@@ -5682,28 +5682,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>550.1365503848933</v>
+        <v>611.1145534532841</v>
       </c>
       <c r="AB7" t="n">
-        <v>752.7210985483022</v>
+        <v>836.153892506108</v>
       </c>
       <c r="AC7" t="n">
-        <v>680.8824533535486</v>
+        <v>756.3525385546831</v>
       </c>
       <c r="AD7" t="n">
-        <v>550136.5503848933</v>
+        <v>611114.5534532841</v>
       </c>
       <c r="AE7" t="n">
-        <v>752721.0985483022</v>
+        <v>836153.892506108</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.558640894221827e-06</v>
+        <v>2.883893728986571e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.748263888888888</v>
       </c>
       <c r="AH7" t="n">
-        <v>680882.4533535487</v>
+        <v>756352.5385546831</v>
       </c>
     </row>
     <row r="8">
@@ -5788,28 +5788,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>537.7299378580324</v>
+        <v>598.7079409264232</v>
       </c>
       <c r="AB8" t="n">
-        <v>735.7458239479358</v>
+        <v>819.1786179057417</v>
       </c>
       <c r="AC8" t="n">
-        <v>665.5272751360936</v>
+        <v>740.9973603372282</v>
       </c>
       <c r="AD8" t="n">
-        <v>537729.9378580324</v>
+        <v>598707.9409264233</v>
       </c>
       <c r="AE8" t="n">
-        <v>735745.8239479358</v>
+        <v>819178.6179057417</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.57980580696431e-06</v>
+        <v>2.923054358839714e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.618055555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>665527.2751360936</v>
+        <v>740997.3603372282</v>
       </c>
     </row>
     <row r="9">
@@ -5894,28 +5894,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>526.2192497973383</v>
+        <v>587.0266606651369</v>
       </c>
       <c r="AB9" t="n">
-        <v>719.9963927275767</v>
+        <v>803.1957749105354</v>
       </c>
       <c r="AC9" t="n">
-        <v>651.2809475269401</v>
+        <v>726.5398974454235</v>
       </c>
       <c r="AD9" t="n">
-        <v>526219.2497973383</v>
+        <v>587026.6606651369</v>
       </c>
       <c r="AE9" t="n">
-        <v>719996.3927275767</v>
+        <v>803195.7749105354</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.599972870222656e-06</v>
+        <v>2.960368705895811e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.499421296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>651280.94752694</v>
+        <v>726539.8974454235</v>
       </c>
     </row>
     <row r="10">
@@ -6000,28 +6000,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>517.1098941625784</v>
+        <v>577.9173050303771</v>
       </c>
       <c r="AB10" t="n">
-        <v>707.5325704716907</v>
+        <v>790.7319526546495</v>
       </c>
       <c r="AC10" t="n">
-        <v>640.0066549740714</v>
+        <v>715.2656048925547</v>
       </c>
       <c r="AD10" t="n">
-        <v>517109.8941625784</v>
+        <v>577917.3050303771</v>
       </c>
       <c r="AE10" t="n">
-        <v>707532.5704716907</v>
+        <v>790731.9526546495</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.612419729577415e-06</v>
+        <v>2.983398654469495e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.424189814814815</v>
       </c>
       <c r="AH10" t="n">
-        <v>640006.6549740713</v>
+        <v>715265.6048925547</v>
       </c>
     </row>
     <row r="11">
@@ -6106,28 +6106,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>509.7869387958492</v>
+        <v>570.5943496636478</v>
       </c>
       <c r="AB11" t="n">
-        <v>697.5129798729417</v>
+        <v>780.7123620559007</v>
       </c>
       <c r="AC11" t="n">
-        <v>630.9433200394834</v>
+        <v>706.2022699579669</v>
       </c>
       <c r="AD11" t="n">
-        <v>509786.9387958492</v>
+        <v>570594.3496636478</v>
       </c>
       <c r="AE11" t="n">
-        <v>697512.9798729417</v>
+        <v>780712.3620559007</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.622398224418785e-06</v>
+        <v>3.00186148243996e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.366319444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>630943.3200394834</v>
+        <v>706202.2699579669</v>
       </c>
     </row>
     <row r="12">
@@ -6212,28 +6212,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>501.9622312493453</v>
+        <v>562.7696421171439</v>
       </c>
       <c r="AB12" t="n">
-        <v>686.8068698060815</v>
+        <v>770.0062519890403</v>
       </c>
       <c r="AC12" t="n">
-        <v>621.2589860912842</v>
+        <v>696.5179360097677</v>
       </c>
       <c r="AD12" t="n">
-        <v>501962.2312493454</v>
+        <v>562769.642117144</v>
       </c>
       <c r="AE12" t="n">
-        <v>686806.8698060815</v>
+        <v>770006.2519890403</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.633217013562584e-06</v>
+        <v>3.021879074871095e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.305555555555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>621258.9860912842</v>
+        <v>696517.9360097677</v>
       </c>
     </row>
     <row r="13">
@@ -6318,28 +6318,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>494.9558703119062</v>
+        <v>555.7632811797048</v>
       </c>
       <c r="AB13" t="n">
-        <v>677.2204576726479</v>
+        <v>760.4198398556065</v>
       </c>
       <c r="AC13" t="n">
-        <v>612.5874876772516</v>
+        <v>687.8464375957351</v>
       </c>
       <c r="AD13" t="n">
-        <v>494955.8703119062</v>
+        <v>555763.2811797048</v>
       </c>
       <c r="AE13" t="n">
-        <v>677220.4576726479</v>
+        <v>760419.8398556064</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.640254478345445e-06</v>
+        <v>3.034900227229213e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.265046296296298</v>
       </c>
       <c r="AH13" t="n">
-        <v>612587.4876772516</v>
+        <v>687846.4375957351</v>
       </c>
     </row>
     <row r="14">
@@ -6424,28 +6424,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>487.8531267301049</v>
+        <v>536.6356186933687</v>
       </c>
       <c r="AB14" t="n">
-        <v>667.5021705530957</v>
+        <v>734.2485281888887</v>
       </c>
       <c r="AC14" t="n">
-        <v>603.7967002406879</v>
+        <v>664.1728791828219</v>
       </c>
       <c r="AD14" t="n">
-        <v>487853.1267301049</v>
+        <v>536635.6186933686</v>
       </c>
       <c r="AE14" t="n">
-        <v>667502.1705530956</v>
+        <v>734248.5281888887</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.647554535097815e-06</v>
+        <v>3.048407243481289e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.224537037037036</v>
       </c>
       <c r="AH14" t="n">
-        <v>603796.7002406878</v>
+        <v>664172.879182822</v>
       </c>
     </row>
     <row r="15">
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>481.3558809126371</v>
+        <v>530.1383728759009</v>
       </c>
       <c r="AB15" t="n">
-        <v>658.6123521873807</v>
+        <v>725.3587098231736</v>
       </c>
       <c r="AC15" t="n">
-        <v>595.7553136628583</v>
+        <v>656.1314926049924</v>
       </c>
       <c r="AD15" t="n">
-        <v>481355.8809126371</v>
+        <v>530138.3728759009</v>
       </c>
       <c r="AE15" t="n">
-        <v>658612.3521873807</v>
+        <v>725358.7098231736</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.653699187184342e-06</v>
+        <v>3.059776458599944e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.189814814814815</v>
       </c>
       <c r="AH15" t="n">
-        <v>595755.3136628582</v>
+        <v>656131.4926049925</v>
       </c>
     </row>
     <row r="16">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>473.7636716706549</v>
+        <v>522.5461636339186</v>
       </c>
       <c r="AB16" t="n">
-        <v>648.224356557868</v>
+        <v>714.970714193661</v>
       </c>
       <c r="AC16" t="n">
-        <v>586.3587337565829</v>
+        <v>646.7349126987169</v>
       </c>
       <c r="AD16" t="n">
-        <v>473763.6716706549</v>
+        <v>522546.1636339186</v>
       </c>
       <c r="AE16" t="n">
-        <v>648224.356557868</v>
+        <v>714970.714193661</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.657112882787968e-06</v>
+        <v>3.066092689221418e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.169560185185185</v>
       </c>
       <c r="AH16" t="n">
-        <v>586358.7337565828</v>
+        <v>646734.912698717</v>
       </c>
     </row>
     <row r="17">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>469.4994342731922</v>
+        <v>518.2819262364559</v>
       </c>
       <c r="AB17" t="n">
-        <v>642.3898388257828</v>
+        <v>709.1361964615758</v>
       </c>
       <c r="AC17" t="n">
-        <v>581.0810542080507</v>
+        <v>641.4572331501848</v>
       </c>
       <c r="AD17" t="n">
-        <v>469499.4342731922</v>
+        <v>518281.9262364559</v>
       </c>
       <c r="AE17" t="n">
-        <v>642389.8388257828</v>
+        <v>709136.1964615758</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.6606841335733e-06</v>
+        <v>3.072700438179269e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.149305555555555</v>
       </c>
       <c r="AH17" t="n">
-        <v>581081.0542080507</v>
+        <v>641457.2331501849</v>
       </c>
     </row>
     <row r="18">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>466.3984412180281</v>
+        <v>515.1809331812919</v>
       </c>
       <c r="AB18" t="n">
-        <v>638.1469233215489</v>
+        <v>704.8932809573419</v>
       </c>
       <c r="AC18" t="n">
-        <v>577.2430766045717</v>
+        <v>637.6192555467057</v>
       </c>
       <c r="AD18" t="n">
-        <v>466398.4412180281</v>
+        <v>515180.9331812919</v>
       </c>
       <c r="AE18" t="n">
-        <v>638146.923321549</v>
+        <v>704893.2809573419</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.664412939540338e-06</v>
+        <v>3.079599705473495e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.129050925925926</v>
       </c>
       <c r="AH18" t="n">
-        <v>577243.0766045717</v>
+        <v>637619.2555467058</v>
       </c>
     </row>
     <row r="19">
@@ -6954,28 +6954,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>465.4627084603895</v>
+        <v>514.2452004236533</v>
       </c>
       <c r="AB19" t="n">
-        <v>636.8666124809322</v>
+        <v>703.6129701167251</v>
       </c>
       <c r="AC19" t="n">
-        <v>576.0849568336558</v>
+        <v>636.46113577579</v>
       </c>
       <c r="AD19" t="n">
-        <v>465462.7084603895</v>
+        <v>514245.2004236532</v>
       </c>
       <c r="AE19" t="n">
-        <v>636866.6124809321</v>
+        <v>703612.9701167252</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.66420286596473e-06</v>
+        <v>3.079211014358328e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.131944444444445</v>
       </c>
       <c r="AH19" t="n">
-        <v>576084.9568336558</v>
+        <v>636461.13577579</v>
       </c>
     </row>
     <row r="20">
@@ -7060,28 +7060,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>467.1826762104134</v>
+        <v>515.9651681736773</v>
       </c>
       <c r="AB20" t="n">
-        <v>639.2199482361368</v>
+        <v>705.9663058719298</v>
       </c>
       <c r="AC20" t="n">
-        <v>578.2136935273112</v>
+        <v>638.5898724694454</v>
       </c>
       <c r="AD20" t="n">
-        <v>467182.6762104135</v>
+        <v>515965.1681736773</v>
       </c>
       <c r="AE20" t="n">
-        <v>639219.9482361368</v>
+        <v>705966.3058719297</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.663625163631809e-06</v>
+        <v>3.078142113791616e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9.134837962962964</v>
       </c>
       <c r="AH20" t="n">
-        <v>578213.6935273112</v>
+        <v>638589.8724694453</v>
       </c>
     </row>
   </sheetData>
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>950.675636946452</v>
+        <v>1044.699993153618</v>
       </c>
       <c r="AB2" t="n">
-        <v>1300.756347319201</v>
+        <v>1429.404619543687</v>
       </c>
       <c r="AC2" t="n">
-        <v>1176.613987154056</v>
+        <v>1292.98424883642</v>
       </c>
       <c r="AD2" t="n">
-        <v>950675.636946452</v>
+        <v>1044699.993153618</v>
       </c>
       <c r="AE2" t="n">
-        <v>1300756.347319202</v>
+        <v>1429404.619543687</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.065130704549893e-06</v>
+        <v>2.030303507048579e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.75983796296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>1176613.987154056</v>
+        <v>1292984.24883642</v>
       </c>
     </row>
     <row r="3">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>633.8818288239585</v>
+        <v>704.2935094196696</v>
       </c>
       <c r="AB3" t="n">
-        <v>867.3050830895654</v>
+        <v>963.6454508247306</v>
       </c>
       <c r="AC3" t="n">
-        <v>784.5307032298258</v>
+        <v>871.6764814829023</v>
       </c>
       <c r="AD3" t="n">
-        <v>633881.8288239585</v>
+        <v>704293.5094196696</v>
       </c>
       <c r="AE3" t="n">
-        <v>867305.0830895654</v>
+        <v>963645.4508247306</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.398279466615689e-06</v>
+        <v>2.665336463193536e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.24131944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>784530.7032298258</v>
+        <v>871676.4814829023</v>
       </c>
     </row>
     <row r="4">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>554.7170139059741</v>
+        <v>613.4503232235397</v>
       </c>
       <c r="AB4" t="n">
-        <v>758.9882908136337</v>
+        <v>839.3497957526611</v>
       </c>
       <c r="AC4" t="n">
-        <v>686.5515135851364</v>
+        <v>759.2434292808637</v>
       </c>
       <c r="AD4" t="n">
-        <v>554717.0139059741</v>
+        <v>613450.3232235397</v>
       </c>
       <c r="AE4" t="n">
-        <v>758988.2908136337</v>
+        <v>839349.7957526611</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.524161019405391e-06</v>
+        <v>2.905286130412692e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.31539351851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>686551.5135851364</v>
+        <v>759243.4292808636</v>
       </c>
     </row>
     <row r="5">
@@ -7675,28 +7675,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>510.9563818490502</v>
+        <v>569.7749425126365</v>
       </c>
       <c r="AB5" t="n">
-        <v>699.1130634505178</v>
+        <v>779.5912130421947</v>
       </c>
       <c r="AC5" t="n">
-        <v>632.3906938861469</v>
+        <v>705.1881218325864</v>
       </c>
       <c r="AD5" t="n">
-        <v>510956.3818490502</v>
+        <v>569774.9425126364</v>
       </c>
       <c r="AE5" t="n">
-        <v>699113.0634505177</v>
+        <v>779591.2130421947</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.589519460495598e-06</v>
+        <v>3.029869406055612e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.890046296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>632390.6938861469</v>
+        <v>705188.1218325864</v>
       </c>
     </row>
     <row r="6">
@@ -7781,28 +7781,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>491.452775020792</v>
+        <v>550.2713356843784</v>
       </c>
       <c r="AB6" t="n">
-        <v>672.4273681496884</v>
+        <v>752.9055177413653</v>
       </c>
       <c r="AC6" t="n">
-        <v>608.25184389122</v>
+        <v>681.0492718376596</v>
       </c>
       <c r="AD6" t="n">
-        <v>491452.775020792</v>
+        <v>550271.3356843784</v>
       </c>
       <c r="AE6" t="n">
-        <v>672427.3681496884</v>
+        <v>752905.5177413654</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.629125697864478e-06</v>
+        <v>3.105365007006309e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.64988425925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>608251.8438912201</v>
+        <v>681049.2718376596</v>
       </c>
     </row>
     <row r="7">
@@ -7887,28 +7887,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>476.0100881647829</v>
+        <v>534.6580566277768</v>
       </c>
       <c r="AB7" t="n">
-        <v>651.2980027100351</v>
+        <v>731.5427405268649</v>
       </c>
       <c r="AC7" t="n">
-        <v>589.1390354338765</v>
+        <v>661.7253280976649</v>
       </c>
       <c r="AD7" t="n">
-        <v>476010.0881647829</v>
+        <v>534658.0566277768</v>
       </c>
       <c r="AE7" t="n">
-        <v>651298.0027100351</v>
+        <v>731542.7405268649</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.657214071965589e-06</v>
+        <v>3.158905782989176e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.484953703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>589139.0354338766</v>
+        <v>661725.328097665</v>
       </c>
     </row>
     <row r="8">
@@ -7993,28 +7993,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>464.9311608549349</v>
+        <v>523.579129317929</v>
       </c>
       <c r="AB8" t="n">
-        <v>636.1393255969239</v>
+        <v>716.3840634137537</v>
       </c>
       <c r="AC8" t="n">
-        <v>575.4270811891037</v>
+        <v>648.0133738528921</v>
       </c>
       <c r="AD8" t="n">
-        <v>464931.1608549349</v>
+        <v>523579.1293179289</v>
       </c>
       <c r="AE8" t="n">
-        <v>636139.3255969238</v>
+        <v>716384.0634137536</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.67541446911041e-06</v>
+        <v>3.193598548858153e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.383680555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>575427.0811891037</v>
+        <v>648013.3738528921</v>
       </c>
     </row>
     <row r="9">
@@ -8099,28 +8099,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>453.5209228830701</v>
+        <v>512.1688913460641</v>
       </c>
       <c r="AB9" t="n">
-        <v>620.5273346196462</v>
+        <v>700.772072436476</v>
       </c>
       <c r="AC9" t="n">
-        <v>561.3050767191305</v>
+        <v>633.8913693829188</v>
       </c>
       <c r="AD9" t="n">
-        <v>453520.9228830701</v>
+        <v>512168.8913460642</v>
       </c>
       <c r="AE9" t="n">
-        <v>620527.3346196462</v>
+        <v>700772.072436476</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.691713332225175e-06</v>
+        <v>3.224666697397534e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.293981481481481</v>
       </c>
       <c r="AH9" t="n">
-        <v>561305.0767191305</v>
+        <v>633891.3693829188</v>
       </c>
     </row>
     <row r="10">
@@ -8205,28 +8205,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>445.1524299994916</v>
+        <v>492.2073680389117</v>
       </c>
       <c r="AB10" t="n">
-        <v>609.0771934644843</v>
+        <v>673.4598356073742</v>
       </c>
       <c r="AC10" t="n">
-        <v>550.9477209654432</v>
+        <v>609.1857741038214</v>
       </c>
       <c r="AD10" t="n">
-        <v>445152.4299994916</v>
+        <v>492207.3680389117</v>
       </c>
       <c r="AE10" t="n">
-        <v>609077.1934644843</v>
+        <v>673459.8356073742</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.704535104542124e-06</v>
+        <v>3.249106974248514e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.221643518518519</v>
       </c>
       <c r="AH10" t="n">
-        <v>550947.7209654432</v>
+        <v>609185.7741038214</v>
       </c>
     </row>
     <row r="11">
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>434.3768215116511</v>
+        <v>481.4317595510711</v>
       </c>
       <c r="AB11" t="n">
-        <v>594.3335305451257</v>
+        <v>658.7161726880153</v>
       </c>
       <c r="AC11" t="n">
-        <v>537.6111725422471</v>
+        <v>595.8492256806253</v>
       </c>
       <c r="AD11" t="n">
-        <v>434376.8215116512</v>
+        <v>481431.7595510712</v>
       </c>
       <c r="AE11" t="n">
-        <v>594333.5305451256</v>
+        <v>658716.1726880153</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.715292354197869e-06</v>
+        <v>3.269611952284506e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.163773148148149</v>
       </c>
       <c r="AH11" t="n">
-        <v>537611.1725422471</v>
+        <v>595849.2256806253</v>
       </c>
     </row>
     <row r="12">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>425.8269282779933</v>
+        <v>472.8818663174134</v>
       </c>
       <c r="AB12" t="n">
-        <v>582.6351894281667</v>
+        <v>647.0178315710564</v>
       </c>
       <c r="AC12" t="n">
-        <v>527.0293046827659</v>
+        <v>585.2673578211441</v>
       </c>
       <c r="AD12" t="n">
-        <v>425826.9282779933</v>
+        <v>472881.8663174134</v>
       </c>
       <c r="AE12" t="n">
-        <v>582635.1894281666</v>
+        <v>647017.8315710564</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.721322933550332e-06</v>
+        <v>3.281107167244077e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.131944444444445</v>
       </c>
       <c r="AH12" t="n">
-        <v>527029.3046827659</v>
+        <v>585267.357821144</v>
       </c>
     </row>
     <row r="13">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>421.6450069484179</v>
+        <v>468.6999449878378</v>
       </c>
       <c r="AB13" t="n">
-        <v>576.9133001716932</v>
+        <v>641.295942314583</v>
       </c>
       <c r="AC13" t="n">
-        <v>521.8535045062082</v>
+        <v>580.0915576445864</v>
       </c>
       <c r="AD13" t="n">
-        <v>421645.0069484179</v>
+        <v>468699.9449878378</v>
       </c>
       <c r="AE13" t="n">
-        <v>576913.3001716932</v>
+        <v>641295.942314583</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.727353512902795e-06</v>
+        <v>3.292602382203648e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.10011574074074</v>
       </c>
       <c r="AH13" t="n">
-        <v>521853.5045062082</v>
+        <v>580091.5576445864</v>
       </c>
     </row>
     <row r="14">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>423.5044506800946</v>
+        <v>470.5593887195146</v>
       </c>
       <c r="AB14" t="n">
-        <v>579.4574731182412</v>
+        <v>643.840115261131</v>
       </c>
       <c r="AC14" t="n">
-        <v>524.1548651575069</v>
+        <v>582.3929182958851</v>
       </c>
       <c r="AD14" t="n">
-        <v>423504.4506800947</v>
+        <v>470559.3887195146</v>
       </c>
       <c r="AE14" t="n">
-        <v>579457.4731182412</v>
+        <v>643840.115261131</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.72556063796017e-06</v>
+        <v>3.289184885864316e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.108796296296296</v>
       </c>
       <c r="AH14" t="n">
-        <v>524154.8651575069</v>
+        <v>582392.9182958851</v>
       </c>
     </row>
     <row r="15">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>425.1549443014371</v>
+        <v>472.2098823408571</v>
       </c>
       <c r="AB15" t="n">
-        <v>581.7157513056015</v>
+        <v>646.0983934484914</v>
       </c>
       <c r="AC15" t="n">
-        <v>526.1976164441789</v>
+        <v>584.435669582557</v>
       </c>
       <c r="AD15" t="n">
-        <v>425154.9443014371</v>
+        <v>472209.8823408571</v>
       </c>
       <c r="AE15" t="n">
-        <v>581715.7513056016</v>
+        <v>646098.3934484913</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.725614967503886e-06</v>
+        <v>3.289288446359448e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.108796296296296</v>
       </c>
       <c r="AH15" t="n">
-        <v>526197.616444179</v>
+        <v>584435.669582557</v>
       </c>
     </row>
   </sheetData>
@@ -9032,28 +9032,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>455.8612349737251</v>
+        <v>508.1785369382305</v>
       </c>
       <c r="AB2" t="n">
-        <v>623.7294528693629</v>
+        <v>695.3122934936659</v>
       </c>
       <c r="AC2" t="n">
-        <v>564.2015892972953</v>
+        <v>628.9526640795627</v>
       </c>
       <c r="AD2" t="n">
-        <v>455861.234973725</v>
+        <v>508178.5369382305</v>
       </c>
       <c r="AE2" t="n">
-        <v>623729.4528693629</v>
+        <v>695312.293493666</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.582646389603411e-06</v>
+        <v>3.370622626651197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.08506944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>564201.5892972953</v>
+        <v>628952.6640795628</v>
       </c>
     </row>
     <row r="3">
@@ -9138,28 +9138,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>354.4441986159775</v>
+        <v>406.7614110719319</v>
       </c>
       <c r="AB3" t="n">
-        <v>484.9661895208221</v>
+        <v>556.5489076755769</v>
       </c>
       <c r="AC3" t="n">
-        <v>438.681697047276</v>
+        <v>503.432661048317</v>
       </c>
       <c r="AD3" t="n">
-        <v>354444.1986159775</v>
+        <v>406761.4110719319</v>
       </c>
       <c r="AE3" t="n">
-        <v>484966.1895208221</v>
+        <v>556548.9076755769</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.812592676118609e-06</v>
+        <v>3.860348039310662e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.678819444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>438681.697047276</v>
+        <v>503432.661048317</v>
       </c>
     </row>
     <row r="4">
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>325.4076062436988</v>
+        <v>377.554226499061</v>
       </c>
       <c r="AB4" t="n">
-        <v>445.2370428330237</v>
+        <v>516.5863492129315</v>
       </c>
       <c r="AC4" t="n">
-        <v>402.7442443591534</v>
+        <v>467.2840730775434</v>
       </c>
       <c r="AD4" t="n">
-        <v>325407.6062436988</v>
+        <v>377554.226499061</v>
       </c>
       <c r="AE4" t="n">
-        <v>445237.0428330237</v>
+        <v>516586.3492129315</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.889463725763025e-06</v>
+        <v>4.024063257674016e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.282407407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>402744.2443591534</v>
+        <v>467284.0730775434</v>
       </c>
     </row>
     <row r="5">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>316.8005048425908</v>
+        <v>358.6543643159052</v>
       </c>
       <c r="AB5" t="n">
-        <v>433.4604269775131</v>
+        <v>490.7267239708652</v>
       </c>
       <c r="AC5" t="n">
-        <v>392.0915721923085</v>
+        <v>443.8924541743678</v>
       </c>
       <c r="AD5" t="n">
-        <v>316800.5048425908</v>
+        <v>358654.3643159053</v>
       </c>
       <c r="AE5" t="n">
-        <v>433460.4269775131</v>
+        <v>490726.7239708652</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.911106442421587e-06</v>
+        <v>4.070156580194298e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.17824074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>392091.5721923085</v>
+        <v>443892.4541743678</v>
       </c>
     </row>
     <row r="6">
@@ -9456,28 +9456,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>318.9929066426831</v>
+        <v>360.8467661159977</v>
       </c>
       <c r="AB6" t="n">
-        <v>436.4601678423405</v>
+        <v>493.7264648356928</v>
       </c>
       <c r="AC6" t="n">
-        <v>394.8050219991597</v>
+        <v>446.6059039812191</v>
       </c>
       <c r="AD6" t="n">
-        <v>318992.9066426831</v>
+        <v>360846.7661159977</v>
       </c>
       <c r="AE6" t="n">
-        <v>436460.1678423405</v>
+        <v>493726.4648356928</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.910439580003536e-06</v>
+        <v>4.068736337763702e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.18113425925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>394805.0219991597</v>
+        <v>446605.903981219</v>
       </c>
     </row>
   </sheetData>
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>602.045467936486</v>
+        <v>667.7909928676675</v>
       </c>
       <c r="AB2" t="n">
-        <v>823.7451696022094</v>
+        <v>913.7010973009056</v>
       </c>
       <c r="AC2" t="n">
-        <v>745.1280867489805</v>
+        <v>826.4987469620507</v>
       </c>
       <c r="AD2" t="n">
-        <v>602045.467936486</v>
+        <v>667790.9928676675</v>
       </c>
       <c r="AE2" t="n">
-        <v>823745.1696022095</v>
+        <v>913701.0973009056</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.377310843676298e-06</v>
+        <v>2.796417192630311e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.18460648148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>745128.0867489806</v>
+        <v>826498.7469620508</v>
       </c>
     </row>
     <row r="3">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>453.4021455011037</v>
+        <v>508.1758743860848</v>
       </c>
       <c r="AB3" t="n">
-        <v>620.3648181655514</v>
+        <v>695.3086504723568</v>
       </c>
       <c r="AC3" t="n">
-        <v>561.1580706073213</v>
+        <v>628.9493687430943</v>
       </c>
       <c r="AD3" t="n">
-        <v>453402.1455011037</v>
+        <v>508175.8743860848</v>
       </c>
       <c r="AE3" t="n">
-        <v>620364.8181655514</v>
+        <v>695308.6504723568</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.647170509990338e-06</v>
+        <v>3.344325614278821e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.1880787037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>561158.0706073213</v>
+        <v>628949.3687430943</v>
       </c>
     </row>
     <row r="4">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>404.5068219778909</v>
+        <v>459.3658022088927</v>
       </c>
       <c r="AB4" t="n">
-        <v>553.4640794116589</v>
+        <v>628.5245563711136</v>
       </c>
       <c r="AC4" t="n">
-        <v>500.6422444643238</v>
+        <v>568.5390548508091</v>
       </c>
       <c r="AD4" t="n">
-        <v>404506.8219778909</v>
+        <v>459365.8022088927</v>
       </c>
       <c r="AE4" t="n">
-        <v>553464.0794116589</v>
+        <v>628524.5563711136</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.74385137475404e-06</v>
+        <v>3.54062119538522e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.623842592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>500642.2444643237</v>
+        <v>568539.054850809</v>
       </c>
     </row>
     <row r="5">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>381.6746460871529</v>
+        <v>436.3630341175624</v>
       </c>
       <c r="AB5" t="n">
-        <v>522.2240890734415</v>
+        <v>597.0511542580492</v>
       </c>
       <c r="AC5" t="n">
-        <v>472.3837549583839</v>
+        <v>540.0694300622182</v>
       </c>
       <c r="AD5" t="n">
-        <v>381674.6460871529</v>
+        <v>436363.0341175625</v>
       </c>
       <c r="AE5" t="n">
-        <v>522224.0890734415</v>
+        <v>597051.1542580492</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.796396583797779e-06</v>
+        <v>3.647306136286476e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.343171296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>472383.7549583839</v>
+        <v>540069.4300622182</v>
       </c>
     </row>
     <row r="6">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>365.8316035707631</v>
+        <v>409.7188772641155</v>
       </c>
       <c r="AB6" t="n">
-        <v>500.5469393568104</v>
+        <v>560.5954433939224</v>
       </c>
       <c r="AC6" t="n">
-        <v>452.7754419866373</v>
+        <v>507.0930010770521</v>
       </c>
       <c r="AD6" t="n">
-        <v>365831.6035707631</v>
+        <v>409718.8772641155</v>
       </c>
       <c r="AE6" t="n">
-        <v>500546.9393568104</v>
+        <v>560595.4433939224</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.825105058937571e-06</v>
+        <v>3.705594266249084e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.195601851851853</v>
       </c>
       <c r="AH6" t="n">
-        <v>452775.4419866373</v>
+        <v>507093.0010770521</v>
       </c>
     </row>
     <row r="7">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>353.9058052484071</v>
+        <v>397.7930789417595</v>
       </c>
       <c r="AB7" t="n">
-        <v>484.2295359630731</v>
+        <v>544.2780400001852</v>
       </c>
       <c r="AC7" t="n">
-        <v>438.0153486711788</v>
+        <v>492.3329077615937</v>
       </c>
       <c r="AD7" t="n">
-        <v>353905.8052484071</v>
+        <v>397793.0789417595</v>
       </c>
       <c r="AE7" t="n">
-        <v>484229.5359630731</v>
+        <v>544278.0400001853</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.840300251839844e-06</v>
+        <v>3.736445761299999e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.12037037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>438015.3486711788</v>
+        <v>492332.9077615937</v>
       </c>
     </row>
     <row r="8">
@@ -10389,28 +10389,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>355.7406453225361</v>
+        <v>399.6279190158886</v>
       </c>
       <c r="AB8" t="n">
-        <v>486.7400450999276</v>
+        <v>546.7885491370398</v>
       </c>
       <c r="AC8" t="n">
-        <v>440.2862583395337</v>
+        <v>494.6038174299485</v>
       </c>
       <c r="AD8" t="n">
-        <v>355740.6453225361</v>
+        <v>399627.9190158886</v>
       </c>
       <c r="AE8" t="n">
-        <v>486740.0450999276</v>
+        <v>546788.5491370398</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.839314304208781e-06</v>
+        <v>3.734443946735628e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.123263888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>440286.2583395337</v>
+        <v>494603.8174299485</v>
       </c>
     </row>
   </sheetData>
@@ -10686,28 +10686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>356.7760303830505</v>
+        <v>406.9232205219972</v>
       </c>
       <c r="AB2" t="n">
-        <v>488.1567046176883</v>
+        <v>556.7703025036853</v>
       </c>
       <c r="AC2" t="n">
-        <v>441.5677138612134</v>
+        <v>503.6329262647603</v>
       </c>
       <c r="AD2" t="n">
-        <v>356776.0303830504</v>
+        <v>406923.2205219972</v>
       </c>
       <c r="AE2" t="n">
-        <v>488156.7046176883</v>
+        <v>556770.3025036854</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.754904058459699e-06</v>
+        <v>3.907828563237304e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.38194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>441567.7138612134</v>
+        <v>503632.9262647603</v>
       </c>
     </row>
     <row r="3">
@@ -10792,28 +10792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>292.8796845627718</v>
+        <v>342.9415338471471</v>
       </c>
       <c r="AB3" t="n">
-        <v>400.7309053585542</v>
+        <v>469.2277361223536</v>
       </c>
       <c r="AC3" t="n">
-        <v>362.4857101804911</v>
+        <v>424.4452995520992</v>
       </c>
       <c r="AD3" t="n">
-        <v>292879.6845627718</v>
+        <v>342941.5338471471</v>
       </c>
       <c r="AE3" t="n">
-        <v>400730.9053585542</v>
+        <v>469227.7361223536</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.940770762699546e-06</v>
+        <v>4.321717409343667e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.386574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>362485.7101804911</v>
+        <v>424445.2995520992</v>
       </c>
     </row>
     <row r="4">
@@ -10898,28 +10898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>288.2773484276581</v>
+        <v>338.3391977120333</v>
       </c>
       <c r="AB4" t="n">
-        <v>394.4337860177512</v>
+        <v>462.9306167815505</v>
       </c>
       <c r="AC4" t="n">
-        <v>356.7895790715118</v>
+        <v>418.7491684431199</v>
       </c>
       <c r="AD4" t="n">
-        <v>288277.3484276581</v>
+        <v>338339.1977120333</v>
       </c>
       <c r="AE4" t="n">
-        <v>394433.7860177511</v>
+        <v>462930.6167815505</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.957141136379208e-06</v>
+        <v>4.358171034000732e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.308449074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>356789.5790715117</v>
+        <v>418749.1684431199</v>
       </c>
     </row>
   </sheetData>
@@ -11195,28 +11195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1027.993022507438</v>
+        <v>1122.840272927581</v>
       </c>
       <c r="AB2" t="n">
-        <v>1406.545405246057</v>
+        <v>1536.319597636267</v>
       </c>
       <c r="AC2" t="n">
-        <v>1272.306685868248</v>
+        <v>1389.695411475959</v>
       </c>
       <c r="AD2" t="n">
-        <v>1027993.022507438</v>
+        <v>1122840.272927581</v>
       </c>
       <c r="AE2" t="n">
-        <v>1406545.405246058</v>
+        <v>1536319.597636267</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.021427197478943e-06</v>
+        <v>1.93127743513642e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.25173611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1272306.685868248</v>
+        <v>1389695.411475959</v>
       </c>
     </row>
     <row r="3">
@@ -11301,28 +11301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>663.7863754757922</v>
+        <v>734.879165240751</v>
       </c>
       <c r="AB3" t="n">
-        <v>908.2218031140912</v>
+        <v>1005.494094463037</v>
       </c>
       <c r="AC3" t="n">
-        <v>821.5423889221883</v>
+        <v>909.531149307309</v>
       </c>
       <c r="AD3" t="n">
-        <v>663786.3754757922</v>
+        <v>734879.165240751</v>
       </c>
       <c r="AE3" t="n">
-        <v>908221.8031140913</v>
+        <v>1005494.094463037</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.362674658214884e-06</v>
+        <v>2.576495735905732e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.43229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>821542.3889221882</v>
+        <v>909531.149307309</v>
       </c>
     </row>
     <row r="4">
@@ -11407,28 +11407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>578.7064784891601</v>
+        <v>638.0073787810986</v>
       </c>
       <c r="AB4" t="n">
-        <v>791.8117345968321</v>
+        <v>872.9498425473435</v>
       </c>
       <c r="AC4" t="n">
-        <v>716.242333961659</v>
+        <v>789.6367347674233</v>
       </c>
       <c r="AD4" t="n">
-        <v>578706.4784891601</v>
+        <v>638007.3787810986</v>
       </c>
       <c r="AE4" t="n">
-        <v>791811.7345968322</v>
+        <v>872949.8425473435</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.491032806904452e-06</v>
+        <v>2.819190660019655e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.44849537037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>716242.333961659</v>
+        <v>789636.7347674232</v>
       </c>
     </row>
     <row r="5">
@@ -11513,28 +11513,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>531.8493620211325</v>
+        <v>602.9420622775403</v>
       </c>
       <c r="AB5" t="n">
-        <v>727.6997606551931</v>
+        <v>824.9719295345905</v>
       </c>
       <c r="AC5" t="n">
-        <v>658.2491168312894</v>
+        <v>746.2377664351836</v>
       </c>
       <c r="AD5" t="n">
-        <v>531849.3620211325</v>
+        <v>602942.0622775403</v>
       </c>
       <c r="AE5" t="n">
-        <v>727699.7606551931</v>
+        <v>824971.9295345905</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.559411518664415e-06</v>
+        <v>2.948478643922625e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.991319444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>658249.1168312894</v>
+        <v>746237.7664351836</v>
       </c>
     </row>
     <row r="6">
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>510.3040658314866</v>
+        <v>569.6902174694457</v>
       </c>
       <c r="AB6" t="n">
-        <v>698.2205358971355</v>
+        <v>779.475288500296</v>
       </c>
       <c r="AC6" t="n">
-        <v>631.583347909789</v>
+        <v>705.0832609662655</v>
       </c>
       <c r="AD6" t="n">
-        <v>510304.0658314866</v>
+        <v>569690.2174694457</v>
       </c>
       <c r="AE6" t="n">
-        <v>698220.5358971355</v>
+        <v>779475.288500296</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.602969296470565e-06</v>
+        <v>3.030836107684439e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.719328703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>631583.3479097891</v>
+        <v>705083.2609662655</v>
       </c>
     </row>
     <row r="7">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>495.515415334337</v>
+        <v>554.9015669722962</v>
       </c>
       <c r="AB7" t="n">
-        <v>677.9860518577218</v>
+        <v>759.2408044608825</v>
       </c>
       <c r="AC7" t="n">
-        <v>613.2800146278204</v>
+        <v>686.7799276842967</v>
       </c>
       <c r="AD7" t="n">
-        <v>495515.415334337</v>
+        <v>554901.5669722962</v>
       </c>
       <c r="AE7" t="n">
-        <v>677986.0518577218</v>
+        <v>759240.8044608824</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.630805354722455e-06</v>
+        <v>3.083467515304782e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.554398148148149</v>
       </c>
       <c r="AH7" t="n">
-        <v>613280.0146278203</v>
+        <v>686779.9276842967</v>
       </c>
     </row>
     <row r="8">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>482.4515005855689</v>
+        <v>541.6670600229359</v>
       </c>
       <c r="AB8" t="n">
-        <v>660.1114273592145</v>
+        <v>741.1327681875281</v>
       </c>
       <c r="AC8" t="n">
-        <v>597.1113192042574</v>
+        <v>670.4000969780828</v>
       </c>
       <c r="AD8" t="n">
-        <v>482451.5005855688</v>
+        <v>541667.0600229359</v>
       </c>
       <c r="AE8" t="n">
-        <v>660111.4273592145</v>
+        <v>741132.7681875281</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.652611164378191e-06</v>
+        <v>3.124697147966753e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.427083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>597111.3192042573</v>
+        <v>670400.0969780828</v>
       </c>
     </row>
     <row r="9">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>471.7277167161129</v>
+        <v>530.9432761534799</v>
       </c>
       <c r="AB9" t="n">
-        <v>645.4386731690703</v>
+        <v>726.4600139973837</v>
       </c>
       <c r="AC9" t="n">
-        <v>583.8389120806808</v>
+        <v>657.1276898545059</v>
       </c>
       <c r="AD9" t="n">
-        <v>471727.7167161129</v>
+        <v>530943.2761534799</v>
       </c>
       <c r="AE9" t="n">
-        <v>645438.6731690703</v>
+        <v>726460.0139973838</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.668494408448419e-06</v>
+        <v>3.154728608794608e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.337384259259261</v>
       </c>
       <c r="AH9" t="n">
-        <v>583838.9120806807</v>
+        <v>657127.6898545059</v>
       </c>
     </row>
     <row r="10">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>463.3554544827846</v>
+        <v>522.5710139201516</v>
       </c>
       <c r="AB10" t="n">
-        <v>633.9833746232889</v>
+        <v>715.0047154516022</v>
       </c>
       <c r="AC10" t="n">
-        <v>573.4768911504962</v>
+        <v>646.7656689243214</v>
       </c>
       <c r="AD10" t="n">
-        <v>463355.4544827846</v>
+        <v>522571.0139201516</v>
       </c>
       <c r="AE10" t="n">
-        <v>633983.3746232889</v>
+        <v>715004.7154516022</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.681308686715247e-06</v>
+        <v>3.178957380581149e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.265046296296298</v>
       </c>
       <c r="AH10" t="n">
-        <v>573476.8911504962</v>
+        <v>646765.6689243214</v>
       </c>
     </row>
     <row r="11">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>453.8509829245731</v>
+        <v>501.3599937434915</v>
       </c>
       <c r="AB11" t="n">
-        <v>620.9789373296518</v>
+        <v>685.9828618817286</v>
       </c>
       <c r="AC11" t="n">
-        <v>561.7135791003216</v>
+        <v>620.5136203267291</v>
       </c>
       <c r="AD11" t="n">
-        <v>453850.9829245731</v>
+        <v>501359.9937434915</v>
       </c>
       <c r="AE11" t="n">
-        <v>620978.9373296518</v>
+        <v>685982.8618817286</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.691861621758516e-06</v>
+        <v>3.1989104867583e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.207175925925926</v>
       </c>
       <c r="AH11" t="n">
-        <v>561713.5791003215</v>
+        <v>620513.6203267291</v>
       </c>
     </row>
     <row r="12">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>446.3364372883198</v>
+        <v>493.8454481072382</v>
       </c>
       <c r="AB12" t="n">
-        <v>610.6972044717739</v>
+        <v>675.7011290238509</v>
       </c>
       <c r="AC12" t="n">
-        <v>552.413120395897</v>
+        <v>611.2131616223046</v>
       </c>
       <c r="AD12" t="n">
-        <v>446336.4372883198</v>
+        <v>493845.4481072382</v>
       </c>
       <c r="AE12" t="n">
-        <v>610697.2044717739</v>
+        <v>675701.1290238509</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.698430285407899e-06</v>
+        <v>3.211330277337956e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.172453703703704</v>
       </c>
       <c r="AH12" t="n">
-        <v>552413.120395897</v>
+        <v>611213.1616223046</v>
       </c>
     </row>
     <row r="13">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>439.7466218799033</v>
+        <v>487.2556326988217</v>
       </c>
       <c r="AB13" t="n">
-        <v>601.6807283078409</v>
+        <v>666.6846528599177</v>
       </c>
       <c r="AC13" t="n">
-        <v>544.2571640623456</v>
+        <v>603.0572052887534</v>
       </c>
       <c r="AD13" t="n">
-        <v>439746.6218799033</v>
+        <v>487255.6326988217</v>
       </c>
       <c r="AE13" t="n">
-        <v>601680.7283078409</v>
+        <v>666684.6528599177</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.70440669249873e-06</v>
+        <v>3.2226302507342e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.140625</v>
       </c>
       <c r="AH13" t="n">
-        <v>544257.1640623456</v>
+        <v>603057.2052887534</v>
       </c>
     </row>
     <row r="14">
@@ -12467,28 +12467,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>434.418845464129</v>
+        <v>481.9278562830474</v>
       </c>
       <c r="AB14" t="n">
-        <v>594.3910295708718</v>
+        <v>659.3949541229484</v>
       </c>
       <c r="AC14" t="n">
-        <v>537.6631839416764</v>
+        <v>596.4632251680841</v>
       </c>
       <c r="AD14" t="n">
-        <v>434418.845464129</v>
+        <v>481927.8562830474</v>
       </c>
       <c r="AE14" t="n">
-        <v>594391.0295708717</v>
+        <v>659394.9541229485</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.708229439376649e-06</v>
+        <v>3.229858161645311e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.12037037037037</v>
       </c>
       <c r="AH14" t="n">
-        <v>537663.1839416764</v>
+        <v>596463.2251680841</v>
       </c>
     </row>
     <row r="15">
@@ -12573,28 +12573,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>432.4269977583747</v>
+        <v>479.9360085772931</v>
       </c>
       <c r="AB15" t="n">
-        <v>591.6656956657397</v>
+        <v>656.6696202178166</v>
       </c>
       <c r="AC15" t="n">
-        <v>535.1979520794201</v>
+        <v>593.9979933058279</v>
       </c>
       <c r="AD15" t="n">
-        <v>432426.9977583747</v>
+        <v>479936.0085772931</v>
       </c>
       <c r="AE15" t="n">
-        <v>591665.6956657397</v>
+        <v>656669.6202178166</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.711406088190695e-06</v>
+        <v>3.235864453810882e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.10300925925926</v>
       </c>
       <c r="AH15" t="n">
-        <v>535197.9520794201</v>
+        <v>593997.9933058278</v>
       </c>
     </row>
   </sheetData>
@@ -12870,28 +12870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>299.1231216097576</v>
+        <v>357.7499738094069</v>
       </c>
       <c r="AB2" t="n">
-        <v>409.273451367243</v>
+        <v>489.4892969809808</v>
       </c>
       <c r="AC2" t="n">
-        <v>370.2129675876492</v>
+        <v>442.7731254796583</v>
       </c>
       <c r="AD2" t="n">
-        <v>299123.1216097575</v>
+        <v>357749.9738094069</v>
       </c>
       <c r="AE2" t="n">
-        <v>409273.451367243</v>
+        <v>489489.2969809808</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.865075817914623e-06</v>
+        <v>4.275810802993749e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.997106481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>370212.9675876492</v>
+        <v>442773.1254796584</v>
       </c>
     </row>
     <row r="3">
@@ -12976,28 +12976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>269.8515701695562</v>
+        <v>318.6789228929578</v>
       </c>
       <c r="AB3" t="n">
-        <v>369.2228233170503</v>
+        <v>436.030561423981</v>
       </c>
       <c r="AC3" t="n">
-        <v>333.9847152671574</v>
+        <v>394.416416614412</v>
       </c>
       <c r="AD3" t="n">
-        <v>269851.5701695562</v>
+        <v>318678.9228929578</v>
       </c>
       <c r="AE3" t="n">
-        <v>369222.8233170502</v>
+        <v>436030.561423981</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.977708484341114e-06</v>
+        <v>4.534028708802458e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.427083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>333984.7152671574</v>
+        <v>394416.416614412</v>
       </c>
     </row>
     <row r="4">
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>271.8892235614882</v>
+        <v>320.7165762848898</v>
       </c>
       <c r="AB4" t="n">
-        <v>372.0108305828148</v>
+        <v>438.8185686897455</v>
       </c>
       <c r="AC4" t="n">
-        <v>336.5066390324701</v>
+        <v>396.9383403797247</v>
       </c>
       <c r="AD4" t="n">
-        <v>271889.2235614882</v>
+        <v>320716.5762848898</v>
       </c>
       <c r="AE4" t="n">
-        <v>372010.8305828148</v>
+        <v>438818.5686897455</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.977837354668833e-06</v>
+        <v>4.534324152630615e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.427083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>336506.6390324701</v>
+        <v>396938.3403797247</v>
       </c>
     </row>
   </sheetData>
@@ -13379,28 +13379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>764.1059465733229</v>
+        <v>843.7023890393295</v>
       </c>
       <c r="AB2" t="n">
-        <v>1045.483466076853</v>
+        <v>1154.390830206053</v>
       </c>
       <c r="AC2" t="n">
-        <v>945.7039914197381</v>
+        <v>1044.217389568892</v>
       </c>
       <c r="AD2" t="n">
-        <v>764105.9465733229</v>
+        <v>843702.3890393296</v>
       </c>
       <c r="AE2" t="n">
-        <v>1045483.466076853</v>
+        <v>1154390.830206053</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.208919400511006e-06</v>
+        <v>2.369465317815027e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.39699074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>945703.9914197382</v>
+        <v>1044217.389568892</v>
       </c>
     </row>
     <row r="3">
@@ -13485,28 +13485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>536.5451593900071</v>
+        <v>604.8315625353774</v>
       </c>
       <c r="AB3" t="n">
-        <v>734.1247577792466</v>
+        <v>827.5572271462315</v>
       </c>
       <c r="AC3" t="n">
-        <v>664.0609212473634</v>
+        <v>748.5763268712575</v>
       </c>
       <c r="AD3" t="n">
-        <v>536545.1593900071</v>
+        <v>604831.5625353775</v>
       </c>
       <c r="AE3" t="n">
-        <v>734124.7577792465</v>
+        <v>827557.2271462316</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.51471773754817e-06</v>
+        <v>2.968825832294977e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.69444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>664060.9212473633</v>
+        <v>748576.3268712575</v>
       </c>
     </row>
     <row r="4">
@@ -13591,28 +13591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>473.8881968187973</v>
+        <v>542.089259109596</v>
       </c>
       <c r="AB4" t="n">
-        <v>648.3947373592183</v>
+        <v>741.7104396040055</v>
       </c>
       <c r="AC4" t="n">
-        <v>586.5128536533832</v>
+        <v>670.9226362453386</v>
       </c>
       <c r="AD4" t="n">
-        <v>473888.1968187973</v>
+        <v>542089.259109596</v>
       </c>
       <c r="AE4" t="n">
-        <v>648394.7373592183</v>
+        <v>741710.4396040055</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.627006125631009e-06</v>
+        <v>3.18890952111921e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.953703703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>586512.8536533832</v>
+        <v>670922.6362453386</v>
       </c>
     </row>
     <row r="5">
@@ -13697,28 +13697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>447.5730340457102</v>
+        <v>504.5494873789953</v>
       </c>
       <c r="AB5" t="n">
-        <v>612.3891707100344</v>
+        <v>690.3468677843532</v>
       </c>
       <c r="AC5" t="n">
-        <v>553.9436077510671</v>
+        <v>624.461131630928</v>
       </c>
       <c r="AD5" t="n">
-        <v>447573.0340457102</v>
+        <v>504549.4873789952</v>
       </c>
       <c r="AE5" t="n">
-        <v>612389.1707100343</v>
+        <v>690346.8677843532</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.685445346547502e-06</v>
+        <v>3.303449586489348e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>553943.6077510671</v>
+        <v>624461.131630928</v>
       </c>
     </row>
     <row r="6">
@@ -13803,28 +13803,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>431.1406076824599</v>
+        <v>487.9464688151527</v>
       </c>
       <c r="AB6" t="n">
-        <v>589.9056000123483</v>
+        <v>667.6298853118201</v>
       </c>
       <c r="AC6" t="n">
-        <v>533.6058374848786</v>
+        <v>603.9122260820884</v>
       </c>
       <c r="AD6" t="n">
-        <v>431140.6076824599</v>
+        <v>487946.4688151528</v>
       </c>
       <c r="AE6" t="n">
-        <v>589905.6000123483</v>
+        <v>667629.8853118201</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.719758797143105e-06</v>
+        <v>3.370703475447102e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.418402777777777</v>
       </c>
       <c r="AH6" t="n">
-        <v>533605.8374848786</v>
+        <v>603912.2260820884</v>
       </c>
     </row>
     <row r="7">
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>417.4631335830511</v>
+        <v>474.2689947157438</v>
       </c>
       <c r="AB7" t="n">
-        <v>571.1914765419662</v>
+        <v>648.9157618414381</v>
       </c>
       <c r="AC7" t="n">
-        <v>516.6777636930725</v>
+        <v>586.9841522902823</v>
       </c>
       <c r="AD7" t="n">
-        <v>417463.1335830511</v>
+        <v>474268.9947157438</v>
       </c>
       <c r="AE7" t="n">
-        <v>571191.4765419662</v>
+        <v>648915.7618414381</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.744780187707925e-06</v>
+        <v>3.419745055160179e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.282407407407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>516677.7636930725</v>
+        <v>586984.1522902823</v>
       </c>
     </row>
     <row r="8">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>405.6672518188642</v>
+        <v>451.2485039940432</v>
       </c>
       <c r="AB8" t="n">
-        <v>555.0518307146301</v>
+        <v>617.4181108436336</v>
       </c>
       <c r="AC8" t="n">
-        <v>502.0784630113621</v>
+        <v>558.4925928964775</v>
       </c>
       <c r="AD8" t="n">
-        <v>405667.2518188642</v>
+        <v>451248.5039940432</v>
       </c>
       <c r="AE8" t="n">
-        <v>555051.8307146301</v>
+        <v>617418.1108436337</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.76196490113835e-06</v>
+        <v>3.453426855992202e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.192708333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>502078.4630113621</v>
+        <v>558492.5928964776</v>
       </c>
     </row>
     <row r="9">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>394.7771785981089</v>
+        <v>440.3584307732879</v>
       </c>
       <c r="AB9" t="n">
-        <v>540.1515520978696</v>
+        <v>602.5178322268731</v>
       </c>
       <c r="AC9" t="n">
-        <v>488.6002460731129</v>
+        <v>545.0143759582282</v>
       </c>
       <c r="AD9" t="n">
-        <v>394777.1785981089</v>
+        <v>440358.4307732879</v>
       </c>
       <c r="AE9" t="n">
-        <v>540151.5520978696</v>
+        <v>602517.8322268731</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.77467151334912e-06</v>
+        <v>3.478331640320767e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.126157407407407</v>
       </c>
       <c r="AH9" t="n">
-        <v>488600.2460731129</v>
+        <v>545014.3759582283</v>
       </c>
     </row>
     <row r="10">
@@ -14227,28 +14227,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>389.6786138674991</v>
+        <v>435.2598660426781</v>
       </c>
       <c r="AB10" t="n">
-        <v>533.1754709006483</v>
+        <v>595.5417510296519</v>
       </c>
       <c r="AC10" t="n">
-        <v>482.289952274363</v>
+        <v>538.7040821594782</v>
       </c>
       <c r="AD10" t="n">
-        <v>389678.6138674991</v>
+        <v>435259.8660426781</v>
       </c>
       <c r="AE10" t="n">
-        <v>533175.4709006483</v>
+        <v>595541.7510296518</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.78127671264811e-06</v>
+        <v>3.491277739663369e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.091435185185185</v>
       </c>
       <c r="AH10" t="n">
-        <v>482289.952274363</v>
+        <v>538704.0821594782</v>
       </c>
     </row>
     <row r="11">
@@ -14333,28 +14333,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>388.8569122602937</v>
+        <v>434.4381644354727</v>
       </c>
       <c r="AB11" t="n">
-        <v>532.0511825107535</v>
+        <v>594.417462639757</v>
       </c>
       <c r="AC11" t="n">
-        <v>481.272964390451</v>
+        <v>537.6870942755663</v>
       </c>
       <c r="AD11" t="n">
-        <v>388856.9122602937</v>
+        <v>434438.1644354727</v>
       </c>
       <c r="AE11" t="n">
-        <v>532051.1825107535</v>
+        <v>594417.462639757</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.780884878791391e-06</v>
+        <v>3.490509750719317e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.094328703703704</v>
       </c>
       <c r="AH11" t="n">
-        <v>481272.964390451</v>
+        <v>537687.0942755663</v>
       </c>
     </row>
   </sheetData>
@@ -14630,28 +14630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>889.1831208513786</v>
+        <v>970.61901036739</v>
       </c>
       <c r="AB2" t="n">
-        <v>1216.619573939576</v>
+        <v>1328.043750673269</v>
       </c>
       <c r="AC2" t="n">
-        <v>1100.507109339079</v>
+        <v>1201.297119030122</v>
       </c>
       <c r="AD2" t="n">
-        <v>889183.1208513785</v>
+        <v>970619.01036739</v>
       </c>
       <c r="AE2" t="n">
-        <v>1216619.573939576</v>
+        <v>1328043.750673268</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.110787690319465e-06</v>
+        <v>2.135714914778315e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.28530092592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>1100507.109339079</v>
+        <v>1201297.119030122</v>
       </c>
     </row>
     <row r="3">
@@ -14736,28 +14736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>604.7991757216799</v>
+        <v>663.0286515602539</v>
       </c>
       <c r="AB3" t="n">
-        <v>827.5129140789252</v>
+        <v>907.1850518244319</v>
       </c>
       <c r="AC3" t="n">
-        <v>748.5362429809012</v>
+        <v>820.6045837205244</v>
       </c>
       <c r="AD3" t="n">
-        <v>604799.1757216799</v>
+        <v>663028.6515602539</v>
       </c>
       <c r="AE3" t="n">
-        <v>827512.9140789252</v>
+        <v>907185.0518244319</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.43558326144828e-06</v>
+        <v>2.760200360160095e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.05324074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>748536.2429809012</v>
+        <v>820604.5837205243</v>
       </c>
     </row>
     <row r="4">
@@ -14842,28 +14842,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>530.925679865705</v>
+        <v>589.0698148497072</v>
       </c>
       <c r="AB4" t="n">
-        <v>726.4359379801565</v>
+        <v>805.9913086034657</v>
       </c>
       <c r="AC4" t="n">
-        <v>657.1059116185721</v>
+        <v>729.0686293262564</v>
       </c>
       <c r="AD4" t="n">
-        <v>530925.679865705</v>
+        <v>589069.8148497072</v>
       </c>
       <c r="AE4" t="n">
-        <v>726435.9379801565</v>
+        <v>805991.3086034657</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.558053459072501e-06</v>
+        <v>2.995674186491995e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.18518518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>657105.9116185721</v>
+        <v>729068.6293262565</v>
       </c>
     </row>
     <row r="5">
@@ -14948,28 +14948,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>489.7602476381811</v>
+        <v>547.9896339682039</v>
       </c>
       <c r="AB5" t="n">
-        <v>670.1115775157618</v>
+        <v>749.7835927917201</v>
       </c>
       <c r="AC5" t="n">
-        <v>606.1570690651628</v>
+        <v>678.2252990235594</v>
       </c>
       <c r="AD5" t="n">
-        <v>489760.2476381811</v>
+        <v>547989.6339682039</v>
       </c>
       <c r="AE5" t="n">
-        <v>670111.5775157618</v>
+        <v>749783.5927917202</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.620358046847296e-06</v>
+        <v>3.115467409381847e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.794560185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>606157.0690651628</v>
+        <v>678225.2990235594</v>
       </c>
     </row>
     <row r="6">
@@ -15054,28 +15054,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>471.6400424113924</v>
+        <v>529.8694287414153</v>
       </c>
       <c r="AB6" t="n">
-        <v>645.3187133174343</v>
+        <v>724.9907285933926</v>
       </c>
       <c r="AC6" t="n">
-        <v>583.7304010289201</v>
+        <v>655.7986309873169</v>
       </c>
       <c r="AD6" t="n">
-        <v>471640.0424113924</v>
+        <v>529869.4287414153</v>
       </c>
       <c r="AE6" t="n">
-        <v>645318.7133174343</v>
+        <v>724990.7285933926</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.657433664220325e-06</v>
+        <v>3.186752813143765e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.574652777777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>583730.4010289202</v>
+        <v>655798.6309873168</v>
       </c>
     </row>
     <row r="7">
@@ -15160,28 +15160,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>457.3658285068658</v>
+        <v>515.4246226362965</v>
       </c>
       <c r="AB7" t="n">
-        <v>625.7881041193878</v>
+        <v>705.2267076204993</v>
       </c>
       <c r="AC7" t="n">
-        <v>566.0637657613531</v>
+        <v>637.9208604370987</v>
       </c>
       <c r="AD7" t="n">
-        <v>457365.8285068658</v>
+        <v>515424.6226362964</v>
       </c>
       <c r="AE7" t="n">
-        <v>625788.1041193878</v>
+        <v>705226.7076204993</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.685569450777076e-06</v>
+        <v>3.240849576649482e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.41550925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>566063.7657613531</v>
+        <v>637920.8604370987</v>
       </c>
     </row>
     <row r="8">
@@ -15266,28 +15266,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>444.9478503693463</v>
+        <v>503.0066444987771</v>
       </c>
       <c r="AB8" t="n">
-        <v>608.7972785891031</v>
+        <v>688.2358820902147</v>
       </c>
       <c r="AC8" t="n">
-        <v>550.6945207729054</v>
+        <v>622.5516154486511</v>
       </c>
       <c r="AD8" t="n">
-        <v>444947.8503693463</v>
+        <v>503006.6444987771</v>
       </c>
       <c r="AE8" t="n">
-        <v>608797.2785891031</v>
+        <v>688235.8820902146</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.703394266821802e-06</v>
+        <v>3.275121405381174e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.317129629629632</v>
       </c>
       <c r="AH8" t="n">
-        <v>550694.5207729054</v>
+        <v>622551.6154486511</v>
       </c>
     </row>
     <row r="9">
@@ -15372,28 +15372,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>433.5639240107845</v>
+        <v>480.1475225833539</v>
       </c>
       <c r="AB9" t="n">
-        <v>593.221288321933</v>
+        <v>656.9590230122481</v>
       </c>
       <c r="AC9" t="n">
-        <v>536.6050811557943</v>
+        <v>594.2597759037383</v>
       </c>
       <c r="AD9" t="n">
-        <v>433563.9240107845</v>
+        <v>480147.5225833539</v>
       </c>
       <c r="AE9" t="n">
-        <v>593221.288321933</v>
+        <v>656959.0230122481</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.7195188696438e-06</v>
+        <v>3.306124228910766e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.230324074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>536605.0811557943</v>
+        <v>594259.7759037382</v>
       </c>
     </row>
     <row r="10">
@@ -15478,28 +15478,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>422.8789683759858</v>
+        <v>469.4625669485551</v>
       </c>
       <c r="AB10" t="n">
-        <v>578.6016606354277</v>
+        <v>642.3393953257428</v>
       </c>
       <c r="AC10" t="n">
-        <v>523.3807302169128</v>
+        <v>581.0354249648567</v>
       </c>
       <c r="AD10" t="n">
-        <v>422878.9683759858</v>
+        <v>469462.5669485552</v>
       </c>
       <c r="AE10" t="n">
-        <v>578601.6606354277</v>
+        <v>642339.3953257428</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.73355934012826e-06</v>
+        <v>3.333119884773267e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.155092592592593</v>
       </c>
       <c r="AH10" t="n">
-        <v>523380.7302169128</v>
+        <v>581035.4249648567</v>
       </c>
     </row>
     <row r="11">
@@ -15584,28 +15584,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>416.4356074443873</v>
+        <v>463.0192060169567</v>
       </c>
       <c r="AB11" t="n">
-        <v>569.7855699477925</v>
+        <v>633.5233046381077</v>
       </c>
       <c r="AC11" t="n">
-        <v>515.4060348510444</v>
+        <v>573.0607295989885</v>
       </c>
       <c r="AD11" t="n">
-        <v>416435.6074443873</v>
+        <v>463019.2060169567</v>
       </c>
       <c r="AE11" t="n">
-        <v>569785.5699477926</v>
+        <v>633523.3046381077</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.739482663613893e-06</v>
+        <v>3.344508677090261e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.123263888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>515406.0348510444</v>
+        <v>573060.7295989884</v>
       </c>
     </row>
     <row r="12">
@@ -15690,28 +15690,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>412.4173295917507</v>
+        <v>459.00092816432</v>
       </c>
       <c r="AB12" t="n">
-        <v>564.2875849159076</v>
+        <v>628.0253196062226</v>
       </c>
       <c r="AC12" t="n">
-        <v>510.4327697941322</v>
+        <v>568.0874645420761</v>
       </c>
       <c r="AD12" t="n">
-        <v>412417.3295917507</v>
+        <v>459000.9281643201</v>
       </c>
       <c r="AE12" t="n">
-        <v>564287.5849159076</v>
+        <v>628025.3196062227</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.7415119503636e-06</v>
+        <v>3.348410392976637e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.111689814814815</v>
       </c>
       <c r="AH12" t="n">
-        <v>510432.7697941322</v>
+        <v>568087.4645420761</v>
       </c>
     </row>
     <row r="13">
@@ -15796,28 +15796,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>412.789377786421</v>
+        <v>459.3729763589904</v>
       </c>
       <c r="AB13" t="n">
-        <v>564.7966376694634</v>
+        <v>628.5343723597784</v>
       </c>
       <c r="AC13" t="n">
-        <v>510.8932392673488</v>
+        <v>568.5479340152926</v>
       </c>
       <c r="AD13" t="n">
-        <v>412789.377786421</v>
+        <v>459372.9763589904</v>
       </c>
       <c r="AE13" t="n">
-        <v>564796.6376694634</v>
+        <v>628534.3723597785</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.743980001815946e-06</v>
+        <v>3.353155723108718e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.10011574074074</v>
       </c>
       <c r="AH13" t="n">
-        <v>510893.2392673488</v>
+        <v>568547.9340152927</v>
       </c>
     </row>
   </sheetData>
@@ -16093,28 +16093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1184.883429429541</v>
+        <v>1281.541021598477</v>
       </c>
       <c r="AB2" t="n">
-        <v>1621.209781513136</v>
+        <v>1753.460963350686</v>
       </c>
       <c r="AC2" t="n">
-        <v>1466.483795347741</v>
+        <v>1586.113110006414</v>
       </c>
       <c r="AD2" t="n">
-        <v>1184883.429429541</v>
+        <v>1281541.021598477</v>
       </c>
       <c r="AE2" t="n">
-        <v>1621209.781513136</v>
+        <v>1753460.963350686</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.389653469616595e-07</v>
+        <v>1.749221224225523e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.31365740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>1466483.795347741</v>
+        <v>1586113.110006414</v>
       </c>
     </row>
     <row r="3">
@@ -16199,28 +16199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>724.4827487654985</v>
+        <v>797.0398814017158</v>
       </c>
       <c r="AB3" t="n">
-        <v>991.2692587840718</v>
+        <v>1090.545128651721</v>
       </c>
       <c r="AC3" t="n">
-        <v>896.6639119808621</v>
+        <v>986.4650321629015</v>
       </c>
       <c r="AD3" t="n">
-        <v>724482.7487654985</v>
+        <v>797039.8814017158</v>
       </c>
       <c r="AE3" t="n">
-        <v>991269.2587840718</v>
+        <v>1090545.128651721</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.295504311374287e-06</v>
+        <v>2.413426272720697e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.82291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>896663.911980862</v>
+        <v>986465.0321629015</v>
       </c>
     </row>
     <row r="4">
@@ -16305,28 +16305,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>625.8102406193041</v>
+        <v>698.2820324009498</v>
       </c>
       <c r="AB4" t="n">
-        <v>856.2611800146175</v>
+        <v>955.4202827600693</v>
       </c>
       <c r="AC4" t="n">
-        <v>774.5408147641357</v>
+        <v>864.2363119142362</v>
       </c>
       <c r="AD4" t="n">
-        <v>625810.2406193041</v>
+        <v>698282.0324009497</v>
       </c>
       <c r="AE4" t="n">
-        <v>856261.1800146175</v>
+        <v>955420.2827600694</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.431661433344484e-06</v>
+        <v>2.667076663920339e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.70023148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>774540.8147641356</v>
+        <v>864236.3119142363</v>
       </c>
     </row>
     <row r="5">
@@ -16411,28 +16411,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>585.3254936424589</v>
+        <v>645.7045194932861</v>
       </c>
       <c r="AB5" t="n">
-        <v>800.8681631399151</v>
+        <v>883.4814100436403</v>
       </c>
       <c r="AC5" t="n">
-        <v>724.4344296753673</v>
+        <v>799.1631842430213</v>
       </c>
       <c r="AD5" t="n">
-        <v>585325.4936424589</v>
+        <v>645704.519493286</v>
       </c>
       <c r="AE5" t="n">
-        <v>800868.1631399151</v>
+        <v>883481.4100436403</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.505404384707037e-06</v>
+        <v>2.804454189169601e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.17650462962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>724434.4296753673</v>
+        <v>799163.1842430213</v>
       </c>
     </row>
     <row r="6">
@@ -16517,28 +16517,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>550.0034966018404</v>
+        <v>610.4677737986883</v>
       </c>
       <c r="AB6" t="n">
-        <v>752.5390484924106</v>
+        <v>835.2689400487853</v>
       </c>
       <c r="AC6" t="n">
-        <v>680.7177778994824</v>
+        <v>755.5520447178487</v>
       </c>
       <c r="AD6" t="n">
-        <v>550003.4966018405</v>
+        <v>610467.7737986883</v>
       </c>
       <c r="AE6" t="n">
-        <v>752539.0484924107</v>
+        <v>835268.9400487853</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.549184299119693e-06</v>
+        <v>2.886012849170418e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.887152777777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>680717.7778994824</v>
+        <v>755552.0447178488</v>
       </c>
     </row>
     <row r="7">
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>531.126963111112</v>
+        <v>591.5912403079599</v>
       </c>
       <c r="AB7" t="n">
-        <v>726.7113425965126</v>
+        <v>809.4412341528872</v>
       </c>
       <c r="AC7" t="n">
-        <v>657.3550320048761</v>
+        <v>732.1892988232423</v>
       </c>
       <c r="AD7" t="n">
-        <v>531126.963111112</v>
+        <v>591591.2403079598</v>
       </c>
       <c r="AE7" t="n">
-        <v>726711.3425965126</v>
+        <v>809441.2341528872</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.583647085434856e-06</v>
+        <v>2.950214406196455e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.673032407407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>657355.0320048761</v>
+        <v>732189.2988232423</v>
       </c>
     </row>
     <row r="8">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>518.5807692184967</v>
+        <v>579.0450464153444</v>
       </c>
       <c r="AB8" t="n">
-        <v>709.5450866136257</v>
+        <v>792.2749781700004</v>
       </c>
       <c r="AC8" t="n">
-        <v>641.8270994000043</v>
+        <v>716.6613662183705</v>
       </c>
       <c r="AD8" t="n">
-        <v>518580.7692184967</v>
+        <v>579045.0464153443</v>
       </c>
       <c r="AE8" t="n">
-        <v>709545.0866136258</v>
+        <v>792274.9781700004</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.604928253021177e-06</v>
+        <v>2.989859607309307e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.545717592592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>641827.0994000043</v>
+        <v>716661.3662183705</v>
       </c>
     </row>
     <row r="9">
@@ -16835,28 +16835,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>508.9333763536773</v>
+        <v>569.2270613499328</v>
       </c>
       <c r="AB9" t="n">
-        <v>696.3450980830448</v>
+        <v>778.8415778645725</v>
       </c>
       <c r="AC9" t="n">
-        <v>629.8868992484818</v>
+        <v>704.5100307841968</v>
       </c>
       <c r="AD9" t="n">
-        <v>508933.3763536772</v>
+        <v>569227.0613499328</v>
       </c>
       <c r="AE9" t="n">
-        <v>696345.0980830449</v>
+        <v>778841.5778645725</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.620968536052659e-06</v>
+        <v>3.019741437998845e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.450231481481481</v>
       </c>
       <c r="AH9" t="n">
-        <v>629886.8992484817</v>
+        <v>704510.0307841968</v>
       </c>
     </row>
     <row r="10">
@@ -16941,28 +16941,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>498.8292097936091</v>
+        <v>559.1228947898645</v>
       </c>
       <c r="AB10" t="n">
-        <v>682.5201316311915</v>
+        <v>765.0166114127192</v>
       </c>
       <c r="AC10" t="n">
-        <v>617.3813681913309</v>
+        <v>692.0044997270461</v>
       </c>
       <c r="AD10" t="n">
-        <v>498829.2097936091</v>
+        <v>559122.8947898645</v>
       </c>
       <c r="AE10" t="n">
-        <v>682520.1316311915</v>
+        <v>765016.6114127191</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.63367371073106e-06</v>
+        <v>3.043410214782638e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.375</v>
       </c>
       <c r="AH10" t="n">
-        <v>617381.3681913309</v>
+        <v>692004.4997270461</v>
       </c>
     </row>
     <row r="11">
@@ -17047,28 +17047,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>493.0855123154859</v>
+        <v>553.3791973117416</v>
       </c>
       <c r="AB11" t="n">
-        <v>674.6613513475743</v>
+        <v>757.157831129102</v>
       </c>
       <c r="AC11" t="n">
-        <v>610.2726188681149</v>
+        <v>684.8957504038299</v>
       </c>
       <c r="AD11" t="n">
-        <v>493085.5123154859</v>
+        <v>553379.1973117415</v>
       </c>
       <c r="AE11" t="n">
-        <v>674661.3513475743</v>
+        <v>757157.8311291019</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.643679035790301e-06</v>
+        <v>3.062049376499874e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.320023148148149</v>
       </c>
       <c r="AH11" t="n">
-        <v>610272.6188681149</v>
+        <v>684895.7504038299</v>
       </c>
     </row>
     <row r="12">
@@ -17153,28 +17153,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>483.5444662030268</v>
+        <v>543.8381511992824</v>
       </c>
       <c r="AB12" t="n">
-        <v>661.6068711352603</v>
+        <v>744.103350916788</v>
       </c>
       <c r="AC12" t="n">
-        <v>598.4640399251859</v>
+        <v>673.0871714609011</v>
       </c>
       <c r="AD12" t="n">
-        <v>483544.4662030268</v>
+        <v>543838.1511992824</v>
       </c>
       <c r="AE12" t="n">
-        <v>661606.8711352603</v>
+        <v>744103.350916788</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.654849001861728e-06</v>
+        <v>3.082858176088958e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.25636574074074</v>
       </c>
       <c r="AH12" t="n">
-        <v>598464.039925186</v>
+        <v>673087.1714609012</v>
       </c>
     </row>
     <row r="13">
@@ -17259,28 +17259,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>476.4472918264107</v>
+        <v>524.8188030924399</v>
       </c>
       <c r="AB13" t="n">
-        <v>651.8962040479386</v>
+        <v>718.0802397625866</v>
       </c>
       <c r="AC13" t="n">
-        <v>589.6801452756714</v>
+        <v>649.5476695115909</v>
       </c>
       <c r="AD13" t="n">
-        <v>476447.2918264107</v>
+        <v>524818.8030924399</v>
       </c>
       <c r="AE13" t="n">
-        <v>651896.2040479386</v>
+        <v>718080.2397625867</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.661678033251369e-06</v>
+        <v>3.095580143610247e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.21875</v>
       </c>
       <c r="AH13" t="n">
-        <v>589680.1452756714</v>
+        <v>649547.669511591</v>
       </c>
     </row>
     <row r="14">
@@ -17365,28 +17365,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>469.0098325905824</v>
+        <v>517.3813438566117</v>
       </c>
       <c r="AB14" t="n">
-        <v>641.7199442039342</v>
+        <v>707.9039799185823</v>
       </c>
       <c r="AC14" t="n">
-        <v>580.4750933887085</v>
+        <v>640.342617624628</v>
       </c>
       <c r="AD14" t="n">
-        <v>469009.8325905824</v>
+        <v>517381.3438566116</v>
       </c>
       <c r="AE14" t="n">
-        <v>641719.9442039343</v>
+        <v>707903.9799185824</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.668083558818396e-06</v>
+        <v>3.107513151905408e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.184027777777777</v>
       </c>
       <c r="AH14" t="n">
-        <v>580475.0933887085</v>
+        <v>640342.617624628</v>
       </c>
     </row>
     <row r="15">
@@ -17471,28 +17471,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>461.1750976621595</v>
+        <v>509.5466089281887</v>
       </c>
       <c r="AB15" t="n">
-        <v>631.0001142307553</v>
+        <v>697.1841499454034</v>
       </c>
       <c r="AC15" t="n">
-        <v>570.7783489427939</v>
+        <v>630.6458731787135</v>
       </c>
       <c r="AD15" t="n">
-        <v>461175.0976621595</v>
+        <v>509546.6089281887</v>
       </c>
       <c r="AE15" t="n">
-        <v>631000.1142307554</v>
+        <v>697184.1499454034</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.67454202261325e-06</v>
+        <v>3.119544780103836e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.146412037037036</v>
       </c>
       <c r="AH15" t="n">
-        <v>570778.3489427939</v>
+        <v>630645.8731787135</v>
       </c>
     </row>
     <row r="16">
@@ -17577,28 +17577,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>458.6620388600169</v>
+        <v>507.0335501260461</v>
       </c>
       <c r="AB16" t="n">
-        <v>627.5616363093342</v>
+        <v>693.7456720239821</v>
       </c>
       <c r="AC16" t="n">
-        <v>567.668034528259</v>
+        <v>627.5355587641785</v>
       </c>
       <c r="AD16" t="n">
-        <v>458662.0388600169</v>
+        <v>507033.5501260461</v>
       </c>
       <c r="AE16" t="n">
-        <v>627561.6363093342</v>
+        <v>693745.6720239822</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.67787713096633e-06</v>
+        <v>3.125757834009582e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.129050925925926</v>
       </c>
       <c r="AH16" t="n">
-        <v>567668.034528259</v>
+        <v>627535.5587641785</v>
       </c>
     </row>
     <row r="17">
@@ -17683,28 +17683,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>455.0972919711629</v>
+        <v>503.4688032371921</v>
       </c>
       <c r="AB17" t="n">
-        <v>622.6841923504705</v>
+        <v>688.8682280651186</v>
       </c>
       <c r="AC17" t="n">
-        <v>563.2560869752938</v>
+        <v>623.1236112112134</v>
       </c>
       <c r="AD17" t="n">
-        <v>455097.2919711629</v>
+        <v>503468.8032371921</v>
       </c>
       <c r="AE17" t="n">
-        <v>622684.1923504706</v>
+        <v>688868.2280651187</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.677612439827197e-06</v>
+        <v>3.125264734493253e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.131944444444445</v>
       </c>
       <c r="AH17" t="n">
-        <v>563256.0869752938</v>
+        <v>623123.6112112134</v>
       </c>
     </row>
     <row r="18">
@@ -17789,28 +17789,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>455.0468724313408</v>
+        <v>503.41838369737</v>
       </c>
       <c r="AB18" t="n">
-        <v>622.6152061117328</v>
+        <v>688.7992418263809</v>
       </c>
       <c r="AC18" t="n">
-        <v>563.1936846863586</v>
+        <v>623.0612089222781</v>
       </c>
       <c r="AD18" t="n">
-        <v>455046.8724313408</v>
+        <v>503418.38369737</v>
       </c>
       <c r="AE18" t="n">
-        <v>622615.2061117329</v>
+        <v>688799.241826381</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.681265177547237e-06</v>
+        <v>3.132069507818593e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.111689814814815</v>
       </c>
       <c r="AH18" t="n">
-        <v>563193.6846863586</v>
+        <v>623061.208922278</v>
       </c>
     </row>
     <row r="19">
@@ -17895,28 +17895,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>456.7824379907285</v>
+        <v>505.1539492567578</v>
       </c>
       <c r="AB19" t="n">
-        <v>624.9898834778357</v>
+        <v>691.1739191924837</v>
       </c>
       <c r="AC19" t="n">
-        <v>565.3417261775211</v>
+        <v>625.2092504134405</v>
       </c>
       <c r="AD19" t="n">
-        <v>456782.4379907285</v>
+        <v>505153.9492567577</v>
       </c>
       <c r="AE19" t="n">
-        <v>624989.8834778358</v>
+        <v>691173.9191924838</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.681000486408104e-06</v>
+        <v>3.131576408302264e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.111689814814815</v>
       </c>
       <c r="AH19" t="n">
-        <v>565341.726177521</v>
+        <v>625209.2504134405</v>
       </c>
     </row>
   </sheetData>
@@ -18192,28 +18192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>650.7115508677638</v>
+        <v>728.4695944369556</v>
       </c>
       <c r="AB2" t="n">
-        <v>890.3322512648352</v>
+        <v>996.7242369189772</v>
       </c>
       <c r="AC2" t="n">
-        <v>805.3601907932815</v>
+        <v>901.5982746586818</v>
       </c>
       <c r="AD2" t="n">
-        <v>650711.5508677638</v>
+        <v>728469.5944369556</v>
       </c>
       <c r="AE2" t="n">
-        <v>890332.2512648352</v>
+        <v>996724.2369189772</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.317177217070522e-06</v>
+        <v>2.640278247637178e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.58101851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>805360.1907932815</v>
+        <v>901598.2746586818</v>
       </c>
     </row>
     <row r="3">
@@ -18298,28 +18298,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>480.0967446385418</v>
+        <v>535.6139107380665</v>
       </c>
       <c r="AB3" t="n">
-        <v>656.8895463879916</v>
+        <v>732.8505822898703</v>
       </c>
       <c r="AC3" t="n">
-        <v>594.1969300309896</v>
+        <v>662.9083512783768</v>
       </c>
       <c r="AD3" t="n">
-        <v>480096.7446385418</v>
+        <v>535613.9107380664</v>
       </c>
       <c r="AE3" t="n">
-        <v>656889.5463879915</v>
+        <v>732850.5822898704</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.602501661413552e-06</v>
+        <v>3.212210341629457e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.34143518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>594196.9300309896</v>
+        <v>662908.3512783768</v>
       </c>
     </row>
     <row r="4">
@@ -18404,28 +18404,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>427.4275153539994</v>
+        <v>483.0299327995446</v>
       </c>
       <c r="AB4" t="n">
-        <v>584.8251832784762</v>
+        <v>660.9028638330043</v>
       </c>
       <c r="AC4" t="n">
-        <v>529.0102885936775</v>
+        <v>597.8272220917768</v>
       </c>
       <c r="AD4" t="n">
-        <v>427427.5153539993</v>
+        <v>483029.9327995445</v>
       </c>
       <c r="AE4" t="n">
-        <v>584825.1832784761</v>
+        <v>660902.8638330043</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.703298735288247e-06</v>
+        <v>3.414257809599431e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.728009259259258</v>
       </c>
       <c r="AH4" t="n">
-        <v>529010.2885936775</v>
+        <v>597827.2220917768</v>
       </c>
     </row>
     <row r="5">
@@ -18510,28 +18510,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>405.080233530281</v>
+        <v>460.512058775234</v>
       </c>
       <c r="AB5" t="n">
-        <v>554.2486463947714</v>
+        <v>630.0929151744526</v>
       </c>
       <c r="AC5" t="n">
-        <v>501.3519334757145</v>
+        <v>569.9577316911628</v>
       </c>
       <c r="AD5" t="n">
-        <v>405080.233530281</v>
+        <v>460512.058775234</v>
       </c>
       <c r="AE5" t="n">
-        <v>554248.6463947714</v>
+        <v>630092.9151744526</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.754384525002013e-06</v>
+        <v>3.51665913995694e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>501351.9334757145</v>
+        <v>569957.7316911628</v>
       </c>
     </row>
     <row r="6">
@@ -18616,28 +18616,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>388.6108958311705</v>
+        <v>444.0427210761236</v>
       </c>
       <c r="AB6" t="n">
-        <v>531.7145719789484</v>
+        <v>607.5588407586296</v>
       </c>
       <c r="AC6" t="n">
-        <v>480.9684794953655</v>
+        <v>549.5742777108138</v>
       </c>
       <c r="AD6" t="n">
-        <v>388610.8958311706</v>
+        <v>444042.7210761236</v>
       </c>
       <c r="AE6" t="n">
-        <v>531714.5719789483</v>
+        <v>607558.8407586296</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.787888097852409e-06</v>
+        <v>3.583816963117415e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.267939814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>480968.4794953655</v>
+        <v>549574.2777108138</v>
       </c>
     </row>
     <row r="7">
@@ -18722,28 +18722,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>372.0862809025559</v>
+        <v>416.5683043675432</v>
       </c>
       <c r="AB7" t="n">
-        <v>509.1048648190585</v>
+        <v>569.9671317322294</v>
       </c>
       <c r="AC7" t="n">
-        <v>460.5166110538923</v>
+        <v>515.5702686335983</v>
       </c>
       <c r="AD7" t="n">
-        <v>372086.2809025559</v>
+        <v>416568.3043675432</v>
       </c>
       <c r="AE7" t="n">
-        <v>509104.8648190586</v>
+        <v>569967.1317322294</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.810510168409514e-06</v>
+        <v>3.629162843712949e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.152199074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>460516.6110538923</v>
+        <v>515570.2686335983</v>
       </c>
     </row>
     <row r="8">
@@ -18828,28 +18828,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>366.3443746645913</v>
+        <v>410.8263981295785</v>
       </c>
       <c r="AB8" t="n">
-        <v>501.2485353892502</v>
+        <v>562.1108023024212</v>
       </c>
       <c r="AC8" t="n">
-        <v>453.4100786784373</v>
+        <v>508.4637362581433</v>
       </c>
       <c r="AD8" t="n">
-        <v>366344.3746645913</v>
+        <v>410826.3981295786</v>
       </c>
       <c r="AE8" t="n">
-        <v>501248.5353892501</v>
+        <v>562110.8023024212</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.818929014920639e-06</v>
+        <v>3.64603839927635e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.111689814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>453410.0786784373</v>
+        <v>508463.7362581433</v>
       </c>
     </row>
     <row r="9">
@@ -18934,28 +18934,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>367.0322400116048</v>
+        <v>411.514263476592</v>
       </c>
       <c r="AB9" t="n">
-        <v>502.1897031035114</v>
+        <v>563.0519700166824</v>
       </c>
       <c r="AC9" t="n">
-        <v>454.2614226669866</v>
+        <v>509.3150802466926</v>
       </c>
       <c r="AD9" t="n">
-        <v>367032.2400116048</v>
+        <v>411514.263476592</v>
       </c>
       <c r="AE9" t="n">
-        <v>502189.7031035114</v>
+        <v>563051.9700166824</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.82156348389691e-06</v>
+        <v>3.65131918537102e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.097222222222223</v>
       </c>
       <c r="AH9" t="n">
-        <v>454261.4226669866</v>
+        <v>509315.0802466926</v>
       </c>
     </row>
   </sheetData>
@@ -19231,28 +19231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>500.7306975136656</v>
+        <v>564.4315993543057</v>
       </c>
       <c r="AB2" t="n">
-        <v>685.1218310174908</v>
+        <v>772.2802152013036</v>
       </c>
       <c r="AC2" t="n">
-        <v>619.7347650397096</v>
+        <v>698.57487536458</v>
       </c>
       <c r="AD2" t="n">
-        <v>500730.6975136656</v>
+        <v>564431.5993543058</v>
       </c>
       <c r="AE2" t="n">
-        <v>685121.8310174907</v>
+        <v>772280.2152013036</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.50706687547969e-06</v>
+        <v>3.152878152326588e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.45543981481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>619734.7650397096</v>
+        <v>698574.87536458</v>
       </c>
     </row>
     <row r="3">
@@ -19337,28 +19337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>385.2116350835852</v>
+        <v>438.4378801179455</v>
       </c>
       <c r="AB3" t="n">
-        <v>527.0635534593021</v>
+        <v>599.8900500915186</v>
       </c>
       <c r="AC3" t="n">
-        <v>476.7613476554887</v>
+        <v>542.6373856617566</v>
       </c>
       <c r="AD3" t="n">
-        <v>385211.6350835852</v>
+        <v>438437.8801179455</v>
       </c>
       <c r="AE3" t="n">
-        <v>527063.5534593021</v>
+        <v>599890.0500915186</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.751065906463458e-06</v>
+        <v>3.663339384335762e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.858217592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>476761.3476554887</v>
+        <v>542637.3856617566</v>
       </c>
     </row>
     <row r="4">
@@ -19443,28 +19443,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>353.5138522056681</v>
+        <v>406.5695050394361</v>
       </c>
       <c r="AB4" t="n">
-        <v>483.69324851825</v>
+        <v>556.2863333756196</v>
       </c>
       <c r="AC4" t="n">
-        <v>437.5302437474053</v>
+        <v>503.1951464710222</v>
       </c>
       <c r="AD4" t="n">
-        <v>353513.8522056681</v>
+        <v>406569.5050394362</v>
       </c>
       <c r="AE4" t="n">
-        <v>483693.24851825</v>
+        <v>556286.3333756196</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.834765329561312e-06</v>
+        <v>3.838443811844043e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.406828703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>437530.2437474054</v>
+        <v>503195.1464710222</v>
       </c>
     </row>
     <row r="5">
@@ -19549,28 +19549,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>333.5336886947064</v>
+        <v>376.1147742307456</v>
       </c>
       <c r="AB5" t="n">
-        <v>456.3555073399485</v>
+        <v>514.6168271152701</v>
       </c>
       <c r="AC5" t="n">
-        <v>412.8015782184003</v>
+        <v>465.5025194046411</v>
       </c>
       <c r="AD5" t="n">
-        <v>333533.6886947064</v>
+        <v>376114.7742307456</v>
       </c>
       <c r="AE5" t="n">
-        <v>456355.5073399485</v>
+        <v>514616.8271152701</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.878852196039797e-06</v>
+        <v>3.930676293617828e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.186921296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>412801.5782184003</v>
+        <v>465502.5194046411</v>
       </c>
     </row>
     <row r="6">
@@ -19655,28 +19655,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>330.5000172535156</v>
+        <v>373.0811027895548</v>
       </c>
       <c r="AB6" t="n">
-        <v>452.2047042379729</v>
+        <v>510.4660240132945</v>
       </c>
       <c r="AC6" t="n">
-        <v>409.0469219387885</v>
+        <v>461.7478631250294</v>
       </c>
       <c r="AD6" t="n">
-        <v>330500.0172535156</v>
+        <v>373081.1027895548</v>
       </c>
       <c r="AE6" t="n">
-        <v>452204.7042379729</v>
+        <v>510466.0240132945</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.885772461955229e-06</v>
+        <v>3.945153922691926e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.155092592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>409046.9219387885</v>
+        <v>461747.8631250294</v>
       </c>
     </row>
     <row r="7">
@@ -19761,28 +19761,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>332.3214847841866</v>
+        <v>374.9025703202258</v>
       </c>
       <c r="AB7" t="n">
-        <v>454.696916470913</v>
+        <v>512.9582362462347</v>
       </c>
       <c r="AC7" t="n">
-        <v>411.3012809340586</v>
+        <v>464.0022221202995</v>
       </c>
       <c r="AD7" t="n">
-        <v>332321.4847841866</v>
+        <v>374902.5703202258</v>
       </c>
       <c r="AE7" t="n">
-        <v>454696.916470913</v>
+        <v>512958.2362462347</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.885593489560865e-06</v>
+        <v>3.944779501250355e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.155092592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>411301.2809340587</v>
+        <v>464002.2221202995</v>
       </c>
     </row>
   </sheetData>
@@ -36703,28 +36703,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>401.7808565945613</v>
+        <v>463.2878269573537</v>
       </c>
       <c r="AB2" t="n">
-        <v>549.7342933130824</v>
+        <v>633.8908436594783</v>
       </c>
       <c r="AC2" t="n">
-        <v>497.2684239162076</v>
+        <v>573.3931912120037</v>
       </c>
       <c r="AD2" t="n">
-        <v>401780.8565945613</v>
+        <v>463287.8269573537</v>
       </c>
       <c r="AE2" t="n">
-        <v>549734.2933130824</v>
+        <v>633890.8436594782</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.662607256088073e-06</v>
+        <v>3.614268376652879e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.74074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>497268.4239162076</v>
+        <v>573393.1912120037</v>
       </c>
     </row>
     <row r="3">
@@ -36809,28 +36809,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>324.2794877818283</v>
+        <v>375.6064137962983</v>
       </c>
       <c r="AB3" t="n">
-        <v>443.6935013844184</v>
+        <v>513.9212659415797</v>
       </c>
       <c r="AC3" t="n">
-        <v>401.3480163400291</v>
+        <v>464.8733416131415</v>
       </c>
       <c r="AD3" t="n">
-        <v>324279.4877818283</v>
+        <v>375606.4137962983</v>
       </c>
       <c r="AE3" t="n">
-        <v>443693.5013844183</v>
+        <v>513921.2659415797</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.874591069779566e-06</v>
+        <v>4.075090613162385e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.525462962962964</v>
       </c>
       <c r="AH3" t="n">
-        <v>401348.0163400291</v>
+        <v>464873.3416131415</v>
       </c>
     </row>
     <row r="4">
@@ -36915,28 +36915,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>302.6717894751866</v>
+        <v>343.7334197953138</v>
       </c>
       <c r="AB4" t="n">
-        <v>414.1288952969002</v>
+        <v>470.3112294121776</v>
       </c>
       <c r="AC4" t="n">
-        <v>374.6050147633182</v>
+        <v>425.4253857630347</v>
       </c>
       <c r="AD4" t="n">
-        <v>302671.7894751867</v>
+        <v>343733.4197953137</v>
       </c>
       <c r="AE4" t="n">
-        <v>414128.8952969002</v>
+        <v>470311.2294121776</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.932477770578001e-06</v>
+        <v>4.200927951691038e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.23900462962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>374605.0147633182</v>
+        <v>425425.3857630347</v>
       </c>
     </row>
     <row r="5">
@@ -37021,28 +37021,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>303.5195650199695</v>
+        <v>344.5811953400966</v>
       </c>
       <c r="AB5" t="n">
-        <v>415.2888591984893</v>
+        <v>471.4711933137668</v>
       </c>
       <c r="AC5" t="n">
-        <v>375.6542733381594</v>
+        <v>426.4746443378759</v>
       </c>
       <c r="AD5" t="n">
-        <v>303519.5650199695</v>
+        <v>344581.1953400966</v>
       </c>
       <c r="AE5" t="n">
-        <v>415288.8591984893</v>
+        <v>471471.1933137669</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.933773741491398e-06</v>
+        <v>4.203745205538694e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.233217592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>375654.2733381594</v>
+        <v>426474.6443378759</v>
       </c>
     </row>
   </sheetData>
@@ -37318,28 +37318,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.2796535931731</v>
+        <v>299.8415402983791</v>
       </c>
       <c r="AB2" t="n">
-        <v>345.1801518388327</v>
+        <v>410.2564235114106</v>
       </c>
       <c r="AC2" t="n">
-        <v>312.2366426108233</v>
+        <v>371.1021262499876</v>
       </c>
       <c r="AD2" t="n">
-        <v>252279.6535931731</v>
+        <v>299841.5402983791</v>
       </c>
       <c r="AE2" t="n">
-        <v>345180.1518388327</v>
+        <v>410256.4235114106</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.971272452744902e-06</v>
+        <v>4.688724681303999e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.722222222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>312236.6426108233</v>
+        <v>371102.1262499876</v>
       </c>
     </row>
     <row r="3">
@@ -37424,28 +37424,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>251.2694538676018</v>
+        <v>298.8313405728078</v>
       </c>
       <c r="AB3" t="n">
-        <v>343.7979520074401</v>
+        <v>408.8742236800174</v>
       </c>
       <c r="AC3" t="n">
-        <v>310.9863579914088</v>
+        <v>369.8518416305729</v>
       </c>
       <c r="AD3" t="n">
-        <v>251269.4538676018</v>
+        <v>298831.3405728078</v>
       </c>
       <c r="AE3" t="n">
-        <v>343797.9520074402</v>
+        <v>408874.2236800174</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.984122385738837e-06</v>
+        <v>4.719288593409538e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.658564814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>310986.3579914088</v>
+        <v>369851.8416305729</v>
       </c>
     </row>
   </sheetData>
@@ -37721,28 +37721,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>819.8550887697767</v>
+        <v>900.5178828778515</v>
       </c>
       <c r="AB2" t="n">
-        <v>1121.761901908614</v>
+        <v>1232.128295398605</v>
       </c>
       <c r="AC2" t="n">
-        <v>1014.702520393172</v>
+        <v>1114.535700188685</v>
       </c>
       <c r="AD2" t="n">
-        <v>819855.0887697766</v>
+        <v>900517.8828778516</v>
       </c>
       <c r="AE2" t="n">
-        <v>1121761.901908614</v>
+        <v>1232128.295398605</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.158048243866364e-06</v>
+        <v>2.24728317079164e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.83969907407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>1014702.520393172</v>
+        <v>1114535.700188685</v>
       </c>
     </row>
     <row r="3">
@@ -37827,28 +37827,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>565.3596592998615</v>
+        <v>634.4138562522114</v>
       </c>
       <c r="AB3" t="n">
-        <v>773.5500277619283</v>
+        <v>868.0330264882946</v>
       </c>
       <c r="AC3" t="n">
-        <v>699.7234987966117</v>
+        <v>785.1891727322554</v>
       </c>
       <c r="AD3" t="n">
-        <v>565359.6592998615</v>
+        <v>634413.8562522114</v>
       </c>
       <c r="AE3" t="n">
-        <v>773550.0277619283</v>
+        <v>868033.0264882946</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.472902650167733e-06</v>
+        <v>2.858282766256085e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.88252314814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>699723.4987966117</v>
+        <v>785189.1727322554</v>
       </c>
     </row>
     <row r="4">
@@ -37933,28 +37933,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>508.4500387499559</v>
+        <v>565.9810689097033</v>
       </c>
       <c r="AB4" t="n">
-        <v>695.6837742502834</v>
+        <v>774.4002678047708</v>
       </c>
       <c r="AC4" t="n">
-        <v>629.2886912341451</v>
+        <v>700.4925931230848</v>
       </c>
       <c r="AD4" t="n">
-        <v>508450.0387499559</v>
+        <v>565981.0689097033</v>
       </c>
       <c r="AE4" t="n">
-        <v>695683.7742502834</v>
+        <v>774400.2678047708</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.591720859442264e-06</v>
+        <v>3.088858792341806e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.06944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>629288.6912341451</v>
+        <v>700492.5931230849</v>
       </c>
     </row>
     <row r="5">
@@ -38039,28 +38039,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>469.6176252715268</v>
+        <v>527.2339067772946</v>
       </c>
       <c r="AB5" t="n">
-        <v>642.551552963923</v>
+        <v>721.3846911710598</v>
       </c>
       <c r="AC5" t="n">
-        <v>581.2273345758141</v>
+        <v>652.5367487154662</v>
       </c>
       <c r="AD5" t="n">
-        <v>469617.6252715268</v>
+        <v>527233.9067772946</v>
       </c>
       <c r="AE5" t="n">
-        <v>642551.552963923</v>
+        <v>721384.6911710597</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.650880695109024e-06</v>
+        <v>3.203663079455815e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.707754629629628</v>
       </c>
       <c r="AH5" t="n">
-        <v>581227.3345758141</v>
+        <v>652536.7487154661</v>
       </c>
     </row>
     <row r="6">
@@ -38145,28 +38145,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>450.7866474772925</v>
+        <v>508.2323367824682</v>
       </c>
       <c r="AB6" t="n">
-        <v>616.7861783817439</v>
+        <v>695.3859048140338</v>
       </c>
       <c r="AC6" t="n">
-        <v>557.9209711818278</v>
+        <v>629.0192500388287</v>
       </c>
       <c r="AD6" t="n">
-        <v>450786.6474772926</v>
+        <v>508232.3367824683</v>
       </c>
       <c r="AE6" t="n">
-        <v>616786.1783817438</v>
+        <v>695385.9048140338</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.69015440623986e-06</v>
+        <v>3.279876786912587e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.482060185185187</v>
       </c>
       <c r="AH6" t="n">
-        <v>557920.9711818278</v>
+        <v>629019.2500388287</v>
       </c>
     </row>
     <row r="7">
@@ -38251,28 +38251,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>437.8610466438281</v>
+        <v>495.3067359490037</v>
       </c>
       <c r="AB7" t="n">
-        <v>599.1008010841342</v>
+        <v>677.700527516424</v>
       </c>
       <c r="AC7" t="n">
-        <v>541.923461471919</v>
+        <v>613.02174032892</v>
       </c>
       <c r="AD7" t="n">
-        <v>437861.0466438281</v>
+        <v>495306.7359490037</v>
       </c>
       <c r="AE7" t="n">
-        <v>599100.8010841343</v>
+        <v>677700.5275164241</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.713751868781095e-06</v>
+        <v>3.325669508177163e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.351851851851853</v>
       </c>
       <c r="AH7" t="n">
-        <v>541923.4614719191</v>
+        <v>613021.7403289201</v>
       </c>
     </row>
     <row r="8">
@@ -38357,28 +38357,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>425.204330407492</v>
+        <v>482.6500197126677</v>
       </c>
       <c r="AB8" t="n">
-        <v>581.7833235546672</v>
+        <v>660.3830499869568</v>
       </c>
       <c r="AC8" t="n">
-        <v>526.258739692632</v>
+        <v>597.3570185496328</v>
       </c>
       <c r="AD8" t="n">
-        <v>425204.330407492</v>
+        <v>482650.0197126677</v>
       </c>
       <c r="AE8" t="n">
-        <v>581783.3235546672</v>
+        <v>660383.0499869569</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.731533055343857e-06</v>
+        <v>3.360175291101879e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.25636574074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>526258.739692632</v>
+        <v>597357.0185496329</v>
       </c>
     </row>
     <row r="9">
@@ -38463,28 +38463,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>413.417786247495</v>
+        <v>459.5109009606604</v>
       </c>
       <c r="AB9" t="n">
-        <v>565.6564538493296</v>
+        <v>628.7230868845876</v>
       </c>
       <c r="AC9" t="n">
-        <v>511.6709957977681</v>
+        <v>568.7186378907163</v>
       </c>
       <c r="AD9" t="n">
-        <v>413417.786247495</v>
+        <v>459510.9009606604</v>
       </c>
       <c r="AE9" t="n">
-        <v>565656.4538493296</v>
+        <v>628723.0868845875</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.748261772920038e-06</v>
+        <v>3.392638675660335e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>511670.9957977681</v>
+        <v>568718.6378907163</v>
       </c>
     </row>
     <row r="10">
@@ -38569,28 +38569,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>404.5176834438981</v>
+        <v>450.6107981570635</v>
       </c>
       <c r="AB10" t="n">
-        <v>553.4789405486241</v>
+        <v>616.5455735838821</v>
       </c>
       <c r="AC10" t="n">
-        <v>500.6556872752346</v>
+        <v>557.7033293681828</v>
       </c>
       <c r="AD10" t="n">
-        <v>404517.6834438981</v>
+        <v>450610.7981570635</v>
       </c>
       <c r="AE10" t="n">
-        <v>553478.9405486241</v>
+        <v>616545.5735838821</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.758177138635722e-06</v>
+        <v>3.411880218163525e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.117476851851853</v>
       </c>
       <c r="AH10" t="n">
-        <v>500655.6872752346</v>
+        <v>557703.3293681828</v>
       </c>
     </row>
     <row r="11">
@@ -38675,28 +38675,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>400.3155976999063</v>
+        <v>446.4087124130717</v>
       </c>
       <c r="AB11" t="n">
-        <v>547.7294614507553</v>
+        <v>610.7960944860131</v>
       </c>
       <c r="AC11" t="n">
-        <v>495.4549303930217</v>
+        <v>552.5025724859698</v>
       </c>
       <c r="AD11" t="n">
-        <v>400315.5976999063</v>
+        <v>446408.7124130717</v>
       </c>
       <c r="AE11" t="n">
-        <v>547729.4614507552</v>
+        <v>610796.0944860131</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.759340393831416e-06</v>
+        <v>3.414137605831497e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.111689814814815</v>
       </c>
       <c r="AH11" t="n">
-        <v>495454.9303930217</v>
+        <v>552502.5724859699</v>
       </c>
     </row>
     <row r="12">
@@ -38781,28 +38781,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>400.6364253089178</v>
+        <v>446.7295400220831</v>
       </c>
       <c r="AB12" t="n">
-        <v>548.1684319393199</v>
+        <v>611.2350649745778</v>
       </c>
       <c r="AC12" t="n">
-        <v>495.8520061542567</v>
+        <v>552.8996482472049</v>
       </c>
       <c r="AD12" t="n">
-        <v>400636.4253089178</v>
+        <v>446729.5400220832</v>
       </c>
       <c r="AE12" t="n">
-        <v>548168.4319393199</v>
+        <v>611235.0649745777</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.763993414614195e-06</v>
+        <v>3.423167156503386e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.085648148148147</v>
       </c>
       <c r="AH12" t="n">
-        <v>495852.0061542568</v>
+        <v>552899.648247205</v>
       </c>
     </row>
     <row r="13">
@@ -38887,28 +38887,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>402.1491851824983</v>
+        <v>448.2422998956637</v>
       </c>
       <c r="AB13" t="n">
-        <v>550.2382567366083</v>
+        <v>613.304889771866</v>
       </c>
       <c r="AC13" t="n">
-        <v>497.7242897779092</v>
+        <v>554.7719318708573</v>
       </c>
       <c r="AD13" t="n">
-        <v>402149.1851824983</v>
+        <v>448242.2998956637</v>
       </c>
       <c r="AE13" t="n">
-        <v>550238.2567366082</v>
+        <v>613304.889771866</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.763938021509638e-06</v>
+        <v>3.423059661852531e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.085648148148147</v>
       </c>
       <c r="AH13" t="n">
-        <v>497724.2897779092</v>
+        <v>554771.9318708574</v>
       </c>
     </row>
   </sheetData>
@@ -39184,28 +39184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1098.331900265783</v>
+        <v>1194.226545898779</v>
       </c>
       <c r="AB2" t="n">
-        <v>1502.786160927304</v>
+        <v>1633.993445655555</v>
       </c>
       <c r="AC2" t="n">
-        <v>1359.362358902025</v>
+        <v>1478.047404526392</v>
       </c>
       <c r="AD2" t="n">
-        <v>1098331.900265783</v>
+        <v>1194226.545898779</v>
       </c>
       <c r="AE2" t="n">
-        <v>1502786.160927304</v>
+        <v>1633993.445655555</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.792830297040642e-07</v>
+        <v>1.837519067167509e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.77256944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1359362.358902025</v>
+        <v>1478047.404526392</v>
       </c>
     </row>
     <row r="3">
@@ -39290,28 +39290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>695.2301189534777</v>
+        <v>767.1511031782246</v>
       </c>
       <c r="AB3" t="n">
-        <v>951.2445201403195</v>
+        <v>1049.649983686508</v>
       </c>
       <c r="AC3" t="n">
-        <v>860.4590782181959</v>
+        <v>949.4728624364714</v>
       </c>
       <c r="AD3" t="n">
-        <v>695230.1189534777</v>
+        <v>767151.1031782246</v>
       </c>
       <c r="AE3" t="n">
-        <v>951244.5201403195</v>
+        <v>1049649.983686508</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.326990958162163e-06</v>
+        <v>2.489955522172914e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>860459.0782181959</v>
+        <v>949472.8624364714</v>
       </c>
     </row>
     <row r="4">
@@ -39396,28 +39396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>600.762546234855</v>
+        <v>660.782040610049</v>
       </c>
       <c r="AB4" t="n">
-        <v>821.9898195315268</v>
+        <v>904.1111396088814</v>
       </c>
       <c r="AC4" t="n">
-        <v>743.5402648253946</v>
+        <v>817.8240413725632</v>
       </c>
       <c r="AD4" t="n">
-        <v>600762.546234855</v>
+        <v>660782.0406100489</v>
       </c>
       <c r="AE4" t="n">
-        <v>821989.8195315268</v>
+        <v>904111.1396088814</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.462999524590047e-06</v>
+        <v>2.745160939328851e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.55844907407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>743540.2648253946</v>
+        <v>817824.0413725632</v>
       </c>
     </row>
     <row r="5">
@@ -39502,28 +39502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>563.8140432026557</v>
+        <v>623.6629453772575</v>
       </c>
       <c r="AB5" t="n">
-        <v>771.4352476299614</v>
+        <v>853.323155932469</v>
       </c>
       <c r="AC5" t="n">
-        <v>697.8105503123273</v>
+        <v>771.8831915768448</v>
       </c>
       <c r="AD5" t="n">
-        <v>563814.0432026557</v>
+        <v>623662.9453772575</v>
       </c>
       <c r="AE5" t="n">
-        <v>771435.2476299613</v>
+        <v>853323.1559324691</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.533352464367107e-06</v>
+        <v>2.877170648831019e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.07233796296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>697810.5503123273</v>
+        <v>771883.1915768448</v>
       </c>
     </row>
     <row r="6">
@@ -39608,28 +39608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>529.1131483254806</v>
+        <v>589.047301846103</v>
       </c>
       <c r="AB6" t="n">
-        <v>723.9559523635737</v>
+        <v>805.9605053187306</v>
       </c>
       <c r="AC6" t="n">
-        <v>654.8626123485542</v>
+        <v>729.0407658637839</v>
       </c>
       <c r="AD6" t="n">
-        <v>529113.1483254805</v>
+        <v>589047.3018461029</v>
       </c>
       <c r="AE6" t="n">
-        <v>723955.9523635737</v>
+        <v>805960.5053187306</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.57765666771685e-06</v>
+        <v>2.960302711719334e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.788773148148147</v>
       </c>
       <c r="AH6" t="n">
-        <v>654862.6123485542</v>
+        <v>729040.7658637839</v>
       </c>
     </row>
     <row r="7">
@@ -39714,28 +39714,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>514.0706052083776</v>
+        <v>574.0047587289998</v>
       </c>
       <c r="AB7" t="n">
-        <v>703.3740812405877</v>
+        <v>785.3786341957448</v>
       </c>
       <c r="AC7" t="n">
-        <v>636.2450461187084</v>
+        <v>710.4231996339381</v>
       </c>
       <c r="AD7" t="n">
-        <v>514070.6052083776</v>
+        <v>574004.7587289999</v>
       </c>
       <c r="AE7" t="n">
-        <v>703374.0812405876</v>
+        <v>785378.6341957448</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.604719596750969e-06</v>
+        <v>3.011083381459546e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.623842592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>636245.0461187084</v>
+        <v>710423.1996339381</v>
       </c>
     </row>
     <row r="8">
@@ -39820,28 +39820,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>502.929360884696</v>
+        <v>562.6929222047262</v>
       </c>
       <c r="AB8" t="n">
-        <v>688.1301392399166</v>
+        <v>769.9012804202266</v>
       </c>
       <c r="AC8" t="n">
-        <v>622.4559645475744</v>
+        <v>696.422982780153</v>
       </c>
       <c r="AD8" t="n">
-        <v>502929.360884696</v>
+        <v>562692.9222047261</v>
       </c>
       <c r="AE8" t="n">
-        <v>688130.1392399166</v>
+        <v>769901.2804202266</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.625857505819039e-06</v>
+        <v>3.050746389777345e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.499421296296296</v>
       </c>
       <c r="AH8" t="n">
-        <v>622455.9645475744</v>
+        <v>696422.982780153</v>
       </c>
     </row>
     <row r="9">
@@ -39926,28 +39926,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>490.7501661176195</v>
+        <v>550.5137274376498</v>
       </c>
       <c r="AB9" t="n">
-        <v>671.4660276514506</v>
+        <v>753.2371688317606</v>
       </c>
       <c r="AC9" t="n">
-        <v>607.3822523808842</v>
+        <v>681.3492706134629</v>
       </c>
       <c r="AD9" t="n">
-        <v>490750.1661176195</v>
+        <v>550513.7274376497</v>
       </c>
       <c r="AE9" t="n">
-        <v>671466.0276514506</v>
+        <v>753237.1688317606</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.642725130226893e-06</v>
+        <v>3.082396669142053e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.401041666666668</v>
       </c>
       <c r="AH9" t="n">
-        <v>607382.2523808843</v>
+        <v>681349.2706134629</v>
       </c>
     </row>
     <row r="10">
@@ -40032,28 +40032,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>482.3459627125714</v>
+        <v>542.1095240326016</v>
       </c>
       <c r="AB10" t="n">
-        <v>659.967025785377</v>
+        <v>741.7381669656871</v>
       </c>
       <c r="AC10" t="n">
-        <v>596.9806991139582</v>
+        <v>670.9477173465369</v>
       </c>
       <c r="AD10" t="n">
-        <v>482345.9627125714</v>
+        <v>542109.5240326016</v>
       </c>
       <c r="AE10" t="n">
-        <v>659967.025785377</v>
+        <v>741738.1669656872</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.656123148348321e-06</v>
+        <v>3.107536606232375e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.325810185185185</v>
       </c>
       <c r="AH10" t="n">
-        <v>596980.6991139582</v>
+        <v>670947.7173465369</v>
       </c>
     </row>
     <row r="11">
@@ -40138,28 +40138,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>474.3215957123451</v>
+        <v>534.0851570323753</v>
       </c>
       <c r="AB11" t="n">
-        <v>648.9877328455802</v>
+        <v>730.7588740258902</v>
       </c>
       <c r="AC11" t="n">
-        <v>587.0492544828011</v>
+        <v>661.0162727153798</v>
       </c>
       <c r="AD11" t="n">
-        <v>474321.5957123452</v>
+        <v>534085.1570323752</v>
       </c>
       <c r="AE11" t="n">
-        <v>648987.7328455802</v>
+        <v>730758.8740258903</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.66519750325128e-06</v>
+        <v>3.124563655257693e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.276620370370372</v>
       </c>
       <c r="AH11" t="n">
-        <v>587049.2544828011</v>
+        <v>661016.2727153798</v>
       </c>
     </row>
     <row r="12">
@@ -40244,28 +40244,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>464.6286972758721</v>
+        <v>512.5761096009211</v>
       </c>
       <c r="AB12" t="n">
-        <v>635.7254815842987</v>
+        <v>701.3292464179727</v>
       </c>
       <c r="AC12" t="n">
-        <v>575.0527338682098</v>
+        <v>634.3953674616201</v>
       </c>
       <c r="AD12" t="n">
-        <v>464628.6972758721</v>
+        <v>512576.109600921</v>
       </c>
       <c r="AE12" t="n">
-        <v>635725.4815842987</v>
+        <v>701329.2464179727</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.676513757600853e-06</v>
+        <v>3.145797386983382e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.212962962962964</v>
       </c>
       <c r="AH12" t="n">
-        <v>575052.7338682098</v>
+        <v>634395.3674616201</v>
       </c>
     </row>
     <row r="13">
@@ -40350,28 +40350,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>458.1780248796771</v>
+        <v>506.125437204726</v>
       </c>
       <c r="AB13" t="n">
-        <v>626.8993870282434</v>
+        <v>692.5031518619174</v>
       </c>
       <c r="AC13" t="n">
-        <v>567.0689893890828</v>
+        <v>626.4116229824932</v>
       </c>
       <c r="AD13" t="n">
-        <v>458178.0248796771</v>
+        <v>506125.437204726</v>
       </c>
       <c r="AE13" t="n">
-        <v>626899.3870282434</v>
+        <v>692503.1518619175</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.682812427474672e-06</v>
+        <v>3.157616162189191e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.17824074074074</v>
       </c>
       <c r="AH13" t="n">
-        <v>567068.9893890829</v>
+        <v>626411.6229824933</v>
       </c>
     </row>
     <row r="14">
@@ -40456,28 +40456,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>451.023162411053</v>
+        <v>498.9705747361019</v>
       </c>
       <c r="AB14" t="n">
-        <v>617.1097885484174</v>
+        <v>682.7135533820915</v>
       </c>
       <c r="AC14" t="n">
-        <v>558.2136964483836</v>
+        <v>617.5563300417941</v>
       </c>
       <c r="AD14" t="n">
-        <v>451023.162411053</v>
+        <v>498970.5747361019</v>
       </c>
       <c r="AE14" t="n">
-        <v>617109.7885484174</v>
+        <v>682713.5533820915</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.689538125814512e-06</v>
+        <v>3.170236210290309e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.140625</v>
       </c>
       <c r="AH14" t="n">
-        <v>558213.6964483836</v>
+        <v>617556.3300417941</v>
       </c>
     </row>
     <row r="15">
@@ -40562,28 +40562,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>445.4267579064898</v>
+        <v>493.3741702315388</v>
       </c>
       <c r="AB15" t="n">
-        <v>609.4525410093323</v>
+        <v>675.0563058430064</v>
       </c>
       <c r="AC15" t="n">
-        <v>551.2872458674145</v>
+        <v>610.6298794608249</v>
       </c>
       <c r="AD15" t="n">
-        <v>445426.7579064898</v>
+        <v>493374.1702315388</v>
       </c>
       <c r="AE15" t="n">
-        <v>609452.5410093323</v>
+        <v>675056.3058430064</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.692367189401905e-06</v>
+        <v>3.175544643221731e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.126157407407407</v>
       </c>
       <c r="AH15" t="n">
-        <v>551287.2458674145</v>
+        <v>610629.8794608249</v>
       </c>
     </row>
     <row r="16">
@@ -40668,28 +40668,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>443.6489913424351</v>
+        <v>491.5964036674841</v>
       </c>
       <c r="AB16" t="n">
-        <v>607.020122366867</v>
+        <v>672.6238872005412</v>
       </c>
       <c r="AC16" t="n">
-        <v>549.0869738462651</v>
+        <v>608.4296074396755</v>
       </c>
       <c r="AD16" t="n">
-        <v>443648.9913424351</v>
+        <v>491596.4036674841</v>
       </c>
       <c r="AE16" t="n">
-        <v>607020.122366867</v>
+        <v>672623.8872005412</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.695836795688331e-06</v>
+        <v>3.182054985496118e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.108796296296296</v>
       </c>
       <c r="AH16" t="n">
-        <v>549086.9738462651</v>
+        <v>608429.6074396755</v>
       </c>
     </row>
     <row r="17">
@@ -40774,28 +40774,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>446.122776308034</v>
+        <v>494.0701886330829</v>
       </c>
       <c r="AB17" t="n">
-        <v>610.4048640924897</v>
+        <v>676.0086289261637</v>
       </c>
       <c r="AC17" t="n">
-        <v>552.1486805721091</v>
+        <v>611.4913141655195</v>
       </c>
       <c r="AD17" t="n">
-        <v>446122.776308034</v>
+        <v>494070.1886330829</v>
       </c>
       <c r="AE17" t="n">
-        <v>610404.8640924897</v>
+        <v>676008.6289261638</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.695303010105804e-06</v>
+        <v>3.181053394376981e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.111689814814815</v>
       </c>
       <c r="AH17" t="n">
-        <v>552148.6805721092</v>
+        <v>611491.3141655196</v>
       </c>
     </row>
   </sheetData>
@@ -41071,28 +41071,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.2022865984871</v>
+        <v>277.9180000686364</v>
       </c>
       <c r="AB2" t="n">
-        <v>317.7094125657985</v>
+        <v>380.2596685707431</v>
       </c>
       <c r="AC2" t="n">
-        <v>287.387672138574</v>
+        <v>343.9682195001474</v>
       </c>
       <c r="AD2" t="n">
-        <v>232202.2865984871</v>
+        <v>277918.0000686364</v>
       </c>
       <c r="AE2" t="n">
-        <v>317709.4125657984</v>
+        <v>380259.6685707431</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.954355599980928e-06</v>
+        <v>4.887695040421111e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.15335648148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>287387.672138574</v>
+        <v>343968.2195001474</v>
       </c>
     </row>
   </sheetData>
@@ -41368,28 +41368,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>545.3714238682006</v>
+        <v>610.2551057142582</v>
       </c>
       <c r="AB2" t="n">
-        <v>746.2012422256181</v>
+        <v>834.9779581934143</v>
       </c>
       <c r="AC2" t="n">
-        <v>674.9848429676255</v>
+        <v>755.2888337623586</v>
       </c>
       <c r="AD2" t="n">
-        <v>545371.4238682006</v>
+        <v>610255.1057142582</v>
       </c>
       <c r="AE2" t="n">
-        <v>746201.2422256181</v>
+        <v>834977.9581934144</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.439833444643223e-06</v>
+        <v>2.965025195000527e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.81423611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>674984.8429676255</v>
+        <v>755288.8337623586</v>
       </c>
     </row>
     <row r="3">
@@ -41474,28 +41474,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>424.1847706385855</v>
+        <v>478.1692541642795</v>
       </c>
       <c r="AB3" t="n">
-        <v>580.3883168990468</v>
+        <v>654.2522688862276</v>
       </c>
       <c r="AC3" t="n">
-        <v>524.9968705143198</v>
+        <v>591.8113505925519</v>
       </c>
       <c r="AD3" t="n">
-        <v>424184.7706385854</v>
+        <v>478169.2541642795</v>
       </c>
       <c r="AE3" t="n">
-        <v>580388.3168990468</v>
+        <v>654252.2688862276</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.699617210439336e-06</v>
+        <v>3.499993606592366e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.00868055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>524996.8705143197</v>
+        <v>591811.3505925519</v>
       </c>
     </row>
     <row r="4">
@@ -41580,28 +41580,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>379.7012146443398</v>
+        <v>433.7709495160545</v>
       </c>
       <c r="AB4" t="n">
-        <v>519.5239531117342</v>
+        <v>593.5045497515641</v>
       </c>
       <c r="AC4" t="n">
-        <v>469.9413161831972</v>
+        <v>536.8613085121415</v>
       </c>
       <c r="AD4" t="n">
-        <v>379701.2146443398</v>
+        <v>433770.9495160545</v>
       </c>
       <c r="AE4" t="n">
-        <v>519523.9531117341</v>
+        <v>593504.5497515642</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.788974830717701e-06</v>
+        <v>3.684006275888496e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.508101851851853</v>
       </c>
       <c r="AH4" t="n">
-        <v>469941.3161831971</v>
+        <v>536861.3085121415</v>
       </c>
     </row>
     <row r="5">
@@ -41686,28 +41686,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>356.6493304381765</v>
+        <v>410.5484731092989</v>
       </c>
       <c r="AB5" t="n">
-        <v>487.9833481635048</v>
+        <v>561.730533028488</v>
       </c>
       <c r="AC5" t="n">
-        <v>441.4109023037097</v>
+        <v>508.1197593500031</v>
       </c>
       <c r="AD5" t="n">
-        <v>356649.3304381765</v>
+        <v>410548.4731092989</v>
       </c>
       <c r="AE5" t="n">
-        <v>487983.3481635049</v>
+        <v>561730.533028488</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.838003946054645e-06</v>
+        <v>3.784971122068083e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.253472222222223</v>
       </c>
       <c r="AH5" t="n">
-        <v>441410.9023037098</v>
+        <v>508119.759350003</v>
       </c>
     </row>
     <row r="6">
@@ -41792,28 +41792,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>343.6999971046828</v>
+        <v>386.9558745106056</v>
       </c>
       <c r="AB6" t="n">
-        <v>470.2654990123514</v>
+        <v>529.4500987937639</v>
       </c>
       <c r="AC6" t="n">
-        <v>425.3840198083849</v>
+        <v>478.920124452767</v>
       </c>
       <c r="AD6" t="n">
-        <v>343699.9971046828</v>
+        <v>386955.8745106056</v>
       </c>
       <c r="AE6" t="n">
-        <v>470265.4990123514</v>
+        <v>529450.0987937639</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.860696078572704e-06</v>
+        <v>3.831700655191969e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>425384.0198083849</v>
+        <v>478920.124452767</v>
       </c>
     </row>
     <row r="7">
@@ -41898,28 +41898,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>344.232122696886</v>
+        <v>387.4880001028087</v>
       </c>
       <c r="AB7" t="n">
-        <v>470.993576723328</v>
+        <v>530.1781765047405</v>
       </c>
       <c r="AC7" t="n">
-        <v>426.0426108044895</v>
+        <v>479.5787154488715</v>
       </c>
       <c r="AD7" t="n">
-        <v>344232.122696886</v>
+        <v>387488.0001028087</v>
       </c>
       <c r="AE7" t="n">
-        <v>470993.576723328</v>
+        <v>530178.1765047405</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.861813048826183e-06</v>
+        <v>3.83400081355817e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.137731481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>426042.6108044895</v>
+        <v>479578.7154488715</v>
       </c>
     </row>
   </sheetData>
@@ -42195,28 +42195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>701.2626053345033</v>
+        <v>780.0064157813465</v>
       </c>
       <c r="AB2" t="n">
-        <v>959.4984341413548</v>
+        <v>1067.239189526465</v>
       </c>
       <c r="AC2" t="n">
-        <v>867.9252502514133</v>
+        <v>965.3833791576682</v>
       </c>
       <c r="AD2" t="n">
-        <v>701262.6053345033</v>
+        <v>780006.4157813465</v>
       </c>
       <c r="AE2" t="n">
-        <v>959498.4341413548</v>
+        <v>1067239.189526465</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.260542043579107e-06</v>
+        <v>2.497365868973183e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.99189814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>867925.2502514133</v>
+        <v>965383.3791576682</v>
       </c>
     </row>
     <row r="3">
@@ -42301,28 +42301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>508.6591680299226</v>
+        <v>565.051045528362</v>
       </c>
       <c r="AB3" t="n">
-        <v>695.9699141572665</v>
+        <v>773.1277687846838</v>
       </c>
       <c r="AC3" t="n">
-        <v>629.5475223500056</v>
+        <v>699.3415396235115</v>
       </c>
       <c r="AD3" t="n">
-        <v>508659.1680299226</v>
+        <v>565051.045528362</v>
       </c>
       <c r="AE3" t="n">
-        <v>695969.9141572665</v>
+        <v>773127.7687846838</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.556674052559659e-06</v>
+        <v>3.084057900155783e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.52083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>629547.5223500056</v>
+        <v>699341.5396235115</v>
       </c>
     </row>
     <row r="4">
@@ -42407,28 +42407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>451.0254048175423</v>
+        <v>507.3319414614101</v>
       </c>
       <c r="AB4" t="n">
-        <v>617.112856707904</v>
+        <v>694.1539442131237</v>
       </c>
       <c r="AC4" t="n">
-        <v>558.2164717870349</v>
+        <v>627.904866028602</v>
       </c>
       <c r="AD4" t="n">
-        <v>451025.4048175423</v>
+        <v>507331.9414614101</v>
       </c>
       <c r="AE4" t="n">
-        <v>617112.856707904</v>
+        <v>694153.9442131238</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.664553947268553e-06</v>
+        <v>3.297787833533848e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.837962962962964</v>
       </c>
       <c r="AH4" t="n">
-        <v>558216.471787035</v>
+        <v>627904.866028602</v>
       </c>
     </row>
     <row r="5">
@@ -42513,28 +42513,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>426.8227008969947</v>
+        <v>483.1292375408624</v>
       </c>
       <c r="AB5" t="n">
-        <v>583.9976494558716</v>
+        <v>661.0387369610914</v>
       </c>
       <c r="AC5" t="n">
-        <v>528.2617334376514</v>
+        <v>597.9501276792184</v>
       </c>
       <c r="AD5" t="n">
-        <v>426822.7008969947</v>
+        <v>483129.2375408624</v>
       </c>
       <c r="AE5" t="n">
-        <v>583997.6494558717</v>
+        <v>661038.7369610914</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.719229696633082e-06</v>
+        <v>3.406110559474672e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.525462962962964</v>
       </c>
       <c r="AH5" t="n">
-        <v>528261.7334376514</v>
+        <v>597950.1276792184</v>
       </c>
     </row>
     <row r="6">
@@ -42619,28 +42619,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>409.0679035656951</v>
+        <v>465.2038480089707</v>
       </c>
       <c r="AB6" t="n">
-        <v>559.7047524608109</v>
+        <v>636.5124281911837</v>
       </c>
       <c r="AC6" t="n">
-        <v>506.2873164365042</v>
+        <v>575.7645753954201</v>
       </c>
       <c r="AD6" t="n">
-        <v>409067.9035656952</v>
+        <v>465203.8480089707</v>
       </c>
       <c r="AE6" t="n">
-        <v>559704.7524608109</v>
+        <v>636512.4281911837</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.754208592189271e-06</v>
+        <v>3.475410191598305e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.337384259259261</v>
       </c>
       <c r="AH6" t="n">
-        <v>506287.3164365042</v>
+        <v>575764.5753954202</v>
       </c>
     </row>
     <row r="7">
@@ -42725,28 +42725,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>394.4012458672348</v>
+        <v>439.44656469088</v>
       </c>
       <c r="AB7" t="n">
-        <v>539.6371843505061</v>
+        <v>601.2701768242305</v>
       </c>
       <c r="AC7" t="n">
-        <v>488.1349688616383</v>
+        <v>543.8857950361185</v>
       </c>
       <c r="AD7" t="n">
-        <v>394401.2458672348</v>
+        <v>439446.56469088</v>
       </c>
       <c r="AE7" t="n">
-        <v>539637.1843505062</v>
+        <v>601270.1768242305</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.778490058521965e-06</v>
+        <v>3.523516246907429e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.207175925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>488134.9688616383</v>
+        <v>543885.7950361185</v>
       </c>
     </row>
     <row r="8">
@@ -42831,28 +42831,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>384.7229927939976</v>
+        <v>429.768311617643</v>
       </c>
       <c r="AB8" t="n">
-        <v>526.394971521312</v>
+        <v>588.0279639950362</v>
       </c>
       <c r="AC8" t="n">
-        <v>476.1565742392999</v>
+        <v>531.90740041378</v>
       </c>
       <c r="AD8" t="n">
-        <v>384722.9927939976</v>
+        <v>429768.311617643</v>
       </c>
       <c r="AE8" t="n">
-        <v>526394.9715213119</v>
+        <v>588027.9639950362</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.79326269887822e-06</v>
+        <v>3.552783567270322e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.131944444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>476156.5742392999</v>
+        <v>531907.40041378</v>
       </c>
     </row>
     <row r="9">
@@ -42937,28 +42937,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>379.0717653430808</v>
+        <v>424.1170841667261</v>
       </c>
       <c r="AB9" t="n">
-        <v>518.6627128084081</v>
+        <v>580.2957052821323</v>
       </c>
       <c r="AC9" t="n">
-        <v>469.1622714456623</v>
+        <v>524.9130976201424</v>
       </c>
       <c r="AD9" t="n">
-        <v>379071.7653430807</v>
+        <v>424117.0841667261</v>
       </c>
       <c r="AE9" t="n">
-        <v>518662.7128084081</v>
+        <v>580295.7052821323</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.798073712021062e-06</v>
+        <v>3.562315070070498e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.108796296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>469162.2714456622</v>
+        <v>524913.0976201424</v>
       </c>
     </row>
     <row r="10">
@@ -43043,28 +43043,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>378.6947087240711</v>
+        <v>423.7400275477164</v>
       </c>
       <c r="AB10" t="n">
-        <v>518.146807307715</v>
+        <v>579.7797997814391</v>
       </c>
       <c r="AC10" t="n">
-        <v>468.6956032418774</v>
+        <v>524.4464294163575</v>
       </c>
       <c r="AD10" t="n">
-        <v>378694.708724071</v>
+        <v>423740.0275477164</v>
       </c>
       <c r="AE10" t="n">
-        <v>518146.807307715</v>
+        <v>579779.7997814391</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.80107352021601e-06</v>
+        <v>3.568258242404726e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.094328703703704</v>
       </c>
       <c r="AH10" t="n">
-        <v>468695.6032418774</v>
+        <v>524446.4294163575</v>
       </c>
     </row>
   </sheetData>
